--- a/引擎插件3.0.xlsx
+++ b/引擎插件3.0.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641">
   <si>
     <t>分类</t>
   </si>
@@ -82,9 +82,6 @@
     <t>主要测试摄像头和美颜参数是否与文档统一</t>
   </si>
   <si>
-    <t>陆情</t>
-  </si>
-  <si>
     <t>uexVideo (ios)刘康立</t>
   </si>
   <si>
@@ -133,12 +130,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t>添加Icon带网格的功能，并可配置是否显示网格。</t>
     </r>
     <r>
@@ -148,8 +139,11 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> 看ios提交没</t>
+      <t xml:space="preserve"> </t>
     </r>
+  </si>
+  <si>
+    <t>ios没改</t>
   </si>
   <si>
     <t>uexWheelPickView(ios)杨广</t>
@@ -219,6 +213,9 @@
     </r>
   </si>
   <si>
+    <t>陆情</t>
+  </si>
+  <si>
     <t>未通过</t>
   </si>
   <si>
@@ -232,6 +229,9 @@
   </si>
   <si>
     <t>通过</t>
+  </si>
+  <si>
+    <t>等安卓通过一起发</t>
   </si>
   <si>
     <t>uexXunfei（android）叶飞</t>
@@ -822,6 +822,41 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>uexWheelPickView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <charset val="134"/>
+      </rPr>
+      <t>android</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）叶飞</t>
+    </r>
+  </si>
+  <si>
+    <t>uexWheelPickView有更新, 修正了当只有两级联动时，UI显示不居中的问题，和iOS保持一致</t>
+  </si>
+  <si>
     <t>uexDevice (ios)刘康立</t>
   </si>
   <si>
@@ -1081,147 +1116,6 @@
     <t xml:space="preserve">https://fs.appcan.cn/uploads/2016/07/08//11521071_iphone_00.00.0007_000_53137_0.ipa </t>
   </si>
   <si>
-    <t>Android 3.3.3引擎版本有更新</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>修复不支持横竖屏切换的问题</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>case</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>uexWindow.setOrientation(2);</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">http://fs.appcan.cn/uploads/2016/06/21//11455982_android_00.00.0000_000_93607_0.apk </t>
-  </si>
-  <si>
-    <t>config.xml支持配置全屏 config.xml支持配置全屏：&lt;fullscreen&gt;true&lt;/fullscreen&gt;</t>
-  </si>
-  <si>
-    <t>iOS引擎</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t> * </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.25"/>
-        <color rgb="FF000000"/>
-        <rFont val=".PingFang SC"/>
-        <charset val="134"/>
-      </rPr>
-      <t>修复</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.25"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>wgtobj.isDebug</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.25"/>
-        <color rgb="FF000000"/>
-        <rFont val=".PingFang SC"/>
-        <charset val="134"/>
-      </rPr>
-      <t>取值错误的问题;(不用测)</t>
-    </r>
-  </si>
-  <si>
-    <t>https://fs.appcan.cn/uploads/2016/06/22//11496997_iphone_00.00.0000_000_40155_0.ipa</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.25"/>
-        <color rgb="FF000000"/>
-        <rFont val=".PingFang SC"/>
-        <charset val="134"/>
-      </rPr>
-      <t>* 允许通过</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.25"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>focus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.25"/>
-        <color rgb="FF000000"/>
-        <rFont val=".PingFang SC"/>
-        <charset val="134"/>
-      </rPr>
-      <t>()方法打开软键盘;</t>
-    </r>
-  </si>
-  <si>
-    <t>* 加密库更新,支持对 xxx.js?v=123 类型引入的js和css文件进行解密(只需测试解密正常即可)</t>
-  </si>
-  <si>
     <t>文档更新</t>
   </si>
   <si>
@@ -3428,12 +3322,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="57">
+  <fonts count="55">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3594,12 +3488,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11.25"/>
-      <color rgb="FF000000"/>
-      <name val=".PingFang SC"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color rgb="FF333333"/>
       <name val="微软雅黑"/>
@@ -3613,15 +3501,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3659,32 +3562,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3717,6 +3597,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -3726,10 +3614,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3772,12 +3660,6 @@
       <sz val="10.5"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11.25"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3850,6 +3732,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3898,36 +3786,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3965,6 +3823,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4012,6 +3876,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4044,41 +3926,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4094,6 +3946,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4141,6 +4008,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4149,10 +4031,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4161,10 +4043,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4173,7 +4055,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4188,125 +4070,125 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4688,17 +4570,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="9" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4754,14 +4630,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="9" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5115,10 +4991,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5164,28 +5040,25 @@
       <c r="I1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="129" t="s">
+      <c r="J1" s="128" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:4">
       <c r="A2" s="49" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="147" t="s">
+      <c r="C2" s="145" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" ht="51.75" spans="1:6">
+    </row>
+    <row r="3" ht="51.75" spans="1:4">
       <c r="A3" s="49" t="s">
         <v>10</v>
       </c>
@@ -5193,16 +5066,13 @@
         <v>11</v>
       </c>
       <c r="C3" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" ht="40.5" spans="1:6">
+    </row>
+    <row r="4" ht="40.5" spans="1:4">
       <c r="A4" s="49" t="s">
         <v>10</v>
       </c>
@@ -5210,16 +5080,13 @@
         <v>11</v>
       </c>
       <c r="C4" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" ht="27" spans="1:6">
+    </row>
+    <row r="5" ht="27" spans="1:4">
       <c r="A5" s="49" t="s">
         <v>10</v>
       </c>
@@ -5227,16 +5094,13 @@
         <v>11</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="49" t="s">
         <v>10</v>
       </c>
@@ -5244,16 +5108,13 @@
         <v>11</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" ht="27" spans="1:6">
+    </row>
+    <row r="7" ht="27" spans="1:4">
       <c r="A7" s="49" t="s">
         <v>10</v>
       </c>
@@ -5261,16 +5122,13 @@
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="148" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" ht="67.5" spans="1:6">
+    </row>
+    <row r="8" ht="67.5" spans="1:5">
       <c r="A8" s="49" t="s">
         <v>10</v>
       </c>
@@ -5278,19 +5136,16 @@
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" ht="17.25" spans="1:6">
+    </row>
+    <row r="9" ht="17.25" spans="1:9">
       <c r="A9" s="49" t="s">
         <v>10</v>
       </c>
@@ -5298,16 +5153,16 @@
         <v>11</v>
       </c>
       <c r="C9" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="I9" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="49" t="s">
         <v>10</v>
       </c>
@@ -5319,9 +5174,6 @@
       </c>
       <c r="D10" s="27" t="s">
         <v>31</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" s="10" customFormat="1" ht="27" spans="1:9">
@@ -5337,17 +5189,17 @@
       <c r="D11" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="50"/>
+      <c r="F11" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="149" t="s">
+      <c r="G11" s="50" t="s">
         <v>36</v>
       </c>
       <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
+      <c r="I11" s="127" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="12" s="10" customFormat="1" spans="1:9">
       <c r="A12" s="49" t="s">
@@ -5357,22 +5209,22 @@
         <v>11</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="71" t="s">
         <v>39</v>
       </c>
+      <c r="E12" s="71"/>
       <c r="F12" s="71" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="G12" s="71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
+      <c r="I12" s="71" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" s="10" customFormat="1" ht="27" spans="1:9">
       <c r="A13" s="49" t="s">
@@ -5382,22 +5234,20 @@
         <v>11</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E13" s="50"/>
-      <c r="F13" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="149" t="s">
-        <v>42</v>
-      </c>
+      <c r="F13" s="71"/>
+      <c r="G13" s="127"/>
       <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="I13" s="127" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="49" t="s">
         <v>10</v>
       </c>
@@ -5405,53 +5255,47 @@
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>46</v>
+      </c>
+      <c r="I14" s="39"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="49" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="43" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>49</v>
+      </c>
+      <c r="G15" s="43"/>
+      <c r="I15" s="43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="49" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="43"/>
+      <c r="I16" s="43" t="s">
         <v>50</v>
-      </c>
-      <c r="F16" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="43" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" s="10" customFormat="1" ht="27" spans="1:9">
@@ -5462,24 +5306,24 @@
         <v>11</v>
       </c>
       <c r="C17" s="109" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" s="112" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="50"/>
+      <c r="F17" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="149" t="s">
-        <v>53</v>
+      <c r="G17" s="50" t="s">
+        <v>36</v>
       </c>
       <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-    </row>
-    <row r="18" s="10" customFormat="1" ht="40.5" spans="1:9">
+      <c r="I17" s="127" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" s="10" customFormat="1" ht="27" spans="1:9">
       <c r="A18" s="49" t="s">
         <v>32</v>
       </c>
@@ -5487,22 +5331,22 @@
         <v>11</v>
       </c>
       <c r="C18" s="109" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="112" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="50" t="s">
+      <c r="E18" s="50"/>
+      <c r="F18" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="149" t="s">
-        <v>55</v>
+      <c r="G18" s="50" t="s">
+        <v>36</v>
       </c>
       <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
+      <c r="I18" s="127" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="19" s="10" customFormat="1" spans="1:9">
       <c r="A19" s="49" t="s">
@@ -5512,18 +5356,16 @@
         <v>11</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" s="110" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E19" s="50"/>
-      <c r="F19" s="71" t="s">
-        <v>14</v>
-      </c>
+      <c r="F19" s="71"/>
       <c r="G19" s="71"/>
       <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
+      <c r="I19" s="71"/>
     </row>
     <row r="20" s="10" customFormat="1" spans="1:9">
       <c r="A20" s="49" t="s">
@@ -5533,18 +5375,16 @@
         <v>11</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="110" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E20" s="50"/>
-      <c r="F20" s="71" t="s">
-        <v>14</v>
-      </c>
+      <c r="F20" s="71"/>
       <c r="G20" s="71"/>
       <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
+      <c r="I20" s="71"/>
     </row>
     <row r="21" s="10" customFormat="1" ht="54" spans="1:9">
       <c r="A21" s="49" t="s">
@@ -5554,52 +5394,54 @@
         <v>11</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="50"/>
+      <c r="F21" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="149" t="s">
-        <v>61</v>
+      <c r="G21" s="50" t="s">
+        <v>36</v>
       </c>
       <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-    </row>
-    <row r="22" ht="17.25" spans="1:4">
+      <c r="I21" s="127" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" ht="17.25" spans="1:9">
       <c r="A22" s="49" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="150" t="s">
-        <v>62</v>
+      <c r="C22" s="147" t="s">
+        <v>64</v>
       </c>
       <c r="D22" s="112" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" ht="40.5" spans="1:7">
+        <v>65</v>
+      </c>
+      <c r="I22" s="39"/>
+    </row>
+    <row r="23" ht="40.5" spans="1:9">
       <c r="A23" s="49" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="150" t="s">
-        <v>64</v>
+      <c r="C23" s="147" t="s">
+        <v>66</v>
       </c>
       <c r="D23" s="112" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="43" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="G23" s="43"/>
+      <c r="I23" s="43" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="24" s="10" customFormat="1" spans="1:9">
@@ -5610,18 +5452,18 @@
         <v>11</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D24" s="76" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E24" s="114"/>
       <c r="F24" s="71"/>
-      <c r="G24" s="149"/>
+      <c r="G24" s="127"/>
       <c r="H24" s="96"/>
-      <c r="I24" s="96"/>
-    </row>
-    <row r="25" ht="27" spans="1:6">
+      <c r="I24" s="127"/>
+    </row>
+    <row r="25" ht="27" spans="1:9">
       <c r="A25" s="49" t="s">
         <v>10</v>
       </c>
@@ -5629,16 +5471,14 @@
         <v>11</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" s="39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>72</v>
+      </c>
+      <c r="I25" s="39"/>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="49" t="s">
         <v>10</v>
       </c>
@@ -5646,16 +5486,14 @@
         <v>11</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="151" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>73</v>
+      </c>
+      <c r="D26" s="148" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="39"/>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="49" t="s">
         <v>10</v>
       </c>
@@ -5663,13 +5501,14 @@
         <v>11</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>76</v>
+      </c>
+      <c r="I27" s="39"/>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="49" t="s">
         <v>10</v>
       </c>
@@ -5677,67 +5516,91 @@
         <v>11</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D28" s="110" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" ht="34.5" spans="1:4">
+        <v>78</v>
+      </c>
+      <c r="I28" s="39"/>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="26.25" spans="1:9">
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="C29" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="149" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="43"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="39"/>
+    </row>
+    <row r="30" ht="34.5" spans="1:9">
       <c r="A30" s="49" t="s">
         <v>10</v>
       </c>
       <c r="B30" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="110" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" ht="27" spans="1:4">
+      <c r="C30" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="I30" s="39"/>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="49" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" ht="121.5" spans="1:4">
+      <c r="C31" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="110" t="s">
+        <v>84</v>
+      </c>
+      <c r="I31" s="39"/>
+    </row>
+    <row r="32" ht="27" spans="1:9">
       <c r="A32" s="49" t="s">
         <v>10</v>
       </c>
       <c r="B32" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="150" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" s="152" t="s">
-        <v>84</v>
-      </c>
+      <c r="C32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32" s="39"/>
+    </row>
+    <row r="33" ht="121.5" spans="1:9">
+      <c r="A33" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="147" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="150" t="s">
+        <v>88</v>
+      </c>
+      <c r="I33" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -5797,68 +5660,68 @@
       <c r="I1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="129" t="s">
+      <c r="J1" s="128" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" s="40" customFormat="1" ht="33" spans="1:10">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="132" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="133" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="134" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="132" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="135" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="136" t="s">
-        <v>88</v>
-      </c>
-      <c r="I2" s="136"/>
-      <c r="J2" s="144" t="s">
+      <c r="B2" s="130" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="131" t="s">
         <v>89</v>
       </c>
+      <c r="D2" s="131" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="132" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="130" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="133" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="134" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="134"/>
+      <c r="J2" s="142" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="3" s="40" customFormat="1" ht="33" spans="1:10">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="132" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="133" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="133" t="s">
+      <c r="B3" s="130" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="131" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="131" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="132" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="134" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="132" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="135" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="136" t="s">
-        <v>88</v>
-      </c>
-      <c r="I3" s="136"/>
-      <c r="J3" s="144" t="s">
+      <c r="F3" s="130" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="133" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="134" t="s">
         <v>92</v>
+      </c>
+      <c r="I3" s="134"/>
+      <c r="J3" s="142" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:10">
@@ -5866,25 +5729,25 @@
         <v>10</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="138" t="s">
-        <v>94</v>
+        <v>47</v>
+      </c>
+      <c r="E4" s="136" t="s">
+        <v>98</v>
       </c>
       <c r="F4" s="59" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G4" s="50"/>
       <c r="H4" s="48"/>
       <c r="I4" s="48"/>
-      <c r="J4" s="145" t="s">
-        <v>96</v>
+      <c r="J4" s="143" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:10">
@@ -5892,25 +5755,25 @@
         <v>10</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="138" t="s">
-        <v>94</v>
+        <v>47</v>
+      </c>
+      <c r="E5" s="136" t="s">
+        <v>98</v>
       </c>
       <c r="F5" s="59" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G5" s="50"/>
       <c r="H5" s="48"/>
       <c r="I5" s="48"/>
-      <c r="J5" s="145" t="s">
-        <v>96</v>
+      <c r="J5" s="143" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="6" s="10" customFormat="1" spans="1:9">
@@ -5921,19 +5784,19 @@
         <v>11</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E6" s="50"/>
       <c r="F6" s="71" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G6" s="71"/>
       <c r="H6" s="96"/>
       <c r="I6" s="102" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" s="32" customFormat="1" ht="27" spans="1:10">
@@ -5944,26 +5807,26 @@
         <v>11</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E7" s="50"/>
       <c r="F7" s="53" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G7" s="53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="65" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I7" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="J7" s="146" t="s">
-        <v>106</v>
+        <v>109</v>
+      </c>
+      <c r="J7" s="144" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:10">
@@ -5971,17 +5834,17 @@
         <v>32</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E8" s="50"/>
       <c r="F8" s="71" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G8" s="71"/>
       <c r="H8" s="96"/>
@@ -5993,38 +5856,38 @@
         <v>32</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E9" s="43"/>
       <c r="F9" s="39" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G9" s="39"/>
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:9">
-      <c r="A10" s="139" t="s">
+      <c r="A10" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="141" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="142" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="140"/>
-      <c r="F10" s="143" t="s">
-        <v>114</v>
+      <c r="C10" s="139" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="140" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="138"/>
+      <c r="F10" s="141" t="s">
+        <v>118</v>
       </c>
       <c r="G10" s="39"/>
       <c r="H10" s="44"/>
@@ -6035,25 +5898,25 @@
         <v>32</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J11" s="82" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6061,25 +5924,25 @@
         <v>32</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F12" s="71" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J12" s="82" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -6098,13 +5961,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="14.8333333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="39" customWidth="1"/>
@@ -6143,103 +6006,35 @@
       <c r="H1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="129" t="s">
+      <c r="I1" s="128" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="111" t="s">
-        <v>32</v>
+    <row r="2" s="10" customFormat="1" ht="54" spans="1:9">
+      <c r="A2" s="49" t="s">
+        <v>10</v>
       </c>
       <c r="B2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" s="127" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="82" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="111"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="53"/>
-      <c r="I3" s="82"/>
-    </row>
-    <row r="4" ht="17.25" spans="1:9">
-      <c r="A4" s="111" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" s="127" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="98" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" spans="4:9">
-      <c r="D5" s="128" t="s">
-        <v>128</v>
-      </c>
-      <c r="E5" s="127"/>
-      <c r="F5" s="53"/>
-      <c r="I5" s="130"/>
-    </row>
-    <row r="6" ht="28.5" spans="4:9">
-      <c r="D6" s="128" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" s="127"/>
-      <c r="F6" s="53"/>
-      <c r="I6" s="130"/>
+      <c r="C2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="127" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="96"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="I4:I6"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" display="http://fs.appcan.cn/uploads/2016/06/21//11455982_android_00.00.0000_000_93607_0.apk "/>
-    <hyperlink ref="I4" r:id="rId2" display="https://fs.appcan.cn/uploads/2016/06/22//11496997_iphone_00.00.0000_000_40155_0.ipa"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -6307,7 +6102,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F2" s="48" t="s">
         <v>4</v>
@@ -6316,10 +6111,10 @@
         <v>5</v>
       </c>
       <c r="H2" s="45" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I2" s="81" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="J2" s="81" t="s">
         <v>8</v>
@@ -6339,28 +6134,28 @@
         <v>11</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F3" s="53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H3" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I3" s="50" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K3" s="82" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="L3" s="44"/>
       <c r="M3" s="44"/>
@@ -6373,28 +6168,28 @@
         <v>11</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H4" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K4" s="83" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="L4" s="84"/>
       <c r="M4" s="84"/>
@@ -6408,28 +6203,28 @@
         <v>11</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G5" s="50" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H5" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I5" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K5" s="85" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="66" spans="1:11">
@@ -6440,28 +6235,28 @@
         <v>11</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H6" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I6" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K6" s="85" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="66" spans="1:14">
@@ -6469,31 +6264,31 @@
         <v>10</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G7" s="59" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H7" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I7" s="45" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K7" s="86" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L7" s="87"/>
       <c r="M7" s="87"/>
@@ -6504,31 +6299,31 @@
         <v>10</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G8" s="43" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H8" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I8" s="88" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K8" s="89" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" s="38" customFormat="1" ht="18" spans="1:13">
@@ -6551,28 +6346,28 @@
         <v>11</v>
       </c>
       <c r="C10" s="51" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F10" s="53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H10" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I10" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K10" s="82" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="40.5" spans="1:11">
@@ -6583,28 +6378,28 @@
         <v>11</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E11" s="50" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F11" s="53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H11" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I11" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="82" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="27" spans="1:11">
@@ -6615,28 +6410,28 @@
         <v>11</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F12" s="53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H12" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I12" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K12" s="82" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:11">
@@ -6647,28 +6442,28 @@
         <v>11</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F13" s="53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H13" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I13" s="91" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K13" s="82" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="27" spans="1:11">
@@ -6679,28 +6474,28 @@
         <v>11</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F14" s="53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H14" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I14" s="50" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K14" s="82" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:11">
@@ -6711,28 +6506,28 @@
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E15" s="50" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F15" s="53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H15" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I15" s="50" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K15" s="82" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="27" spans="1:11">
@@ -6743,28 +6538,28 @@
         <v>11</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F16" s="53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H16" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I16" s="50" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K16" s="82" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" s="10" customFormat="1" spans="1:11">
@@ -6775,28 +6570,28 @@
         <v>11</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E17" s="50" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F17" s="53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H17" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I17" s="50" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K17" s="92" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="49.5" spans="1:11">
@@ -6807,28 +6602,28 @@
         <v>11</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E18" s="50" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F18" s="53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H18" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I18" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K18" s="82" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:11">
@@ -6839,28 +6634,28 @@
         <v>11</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E19" s="50" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F19" s="53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H19" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I19" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="82" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" s="39" customFormat="1" ht="17.25" spans="1:14">
@@ -6868,31 +6663,31 @@
         <v>10</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C20" s="67" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E20" s="50" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F20" s="53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H20" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I20" s="44" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K20" s="93" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L20" s="94"/>
       <c r="M20" s="94"/>
@@ -6903,31 +6698,31 @@
         <v>10</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C21" s="67" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E21" s="50" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F21" s="53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H21" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I21" s="44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K21" s="83" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="L21" s="94"/>
       <c r="M21" s="94"/>
@@ -6953,28 +6748,28 @@
         <v>11</v>
       </c>
       <c r="C23" s="68" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E23" s="50" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F23" s="53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H23" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I23" s="65" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K23" s="82" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" ht="108" spans="1:11">
@@ -6985,28 +6780,28 @@
         <v>11</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E24" s="50" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F24" s="53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G24" s="69" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H24" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I24" s="65" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K24" s="82" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" ht="27" spans="1:15">
@@ -7017,28 +6812,28 @@
         <v>11</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F25" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H25" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I25" s="44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K25" s="95" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L25" s="95"/>
       <c r="M25" s="95"/>
@@ -7053,28 +6848,28 @@
         <v>11</v>
       </c>
       <c r="C26" s="70" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E26" s="50" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F26" s="53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G26" s="71" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I26" s="96" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K26" s="97" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" spans="1:14">
@@ -7082,31 +6877,31 @@
         <v>10</v>
       </c>
       <c r="B27" s="50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F27" s="53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G27" s="50" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H27" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I27" s="48" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K27" s="98" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L27" s="98"/>
       <c r="M27" s="98"/>
@@ -7117,31 +6912,31 @@
         <v>10</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E28" s="43" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F28" s="53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G28" s="50" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H28" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I28" s="48" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K28" s="98" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L28" s="98"/>
       <c r="M28" s="98"/>
@@ -7155,28 +6950,28 @@
         <v>11</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E29" s="50" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F29" s="53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G29" s="39" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H29" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I29" s="96" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K29" s="99" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:11">
@@ -7187,28 +6982,28 @@
         <v>11</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E30" s="50" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F30" s="53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H30" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I30" s="96" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K30" s="82" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" ht="34.5" spans="1:11">
@@ -7219,28 +7014,28 @@
         <v>11</v>
       </c>
       <c r="C31" s="70" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E31" s="50" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F31" s="53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H31" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I31" s="96" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K31" s="82" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" s="39" customFormat="1" ht="34.5" spans="1:11">
@@ -7251,28 +7046,28 @@
         <v>11</v>
       </c>
       <c r="C32" s="70" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E32" s="50" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F32" s="53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H32" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I32" s="96" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K32" s="82" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" s="40" customFormat="1" ht="40.5" spans="1:16384">
@@ -7283,29 +7078,29 @@
         <v>11</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E33" s="50" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F33" s="53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G33" s="39" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H33" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I33" s="44" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J33" s="39"/>
       <c r="K33" s="93" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="L33" s="94"/>
       <c r="M33" s="94"/>
@@ -23689,25 +23484,25 @@
         <v>11</v>
       </c>
       <c r="C34" s="70" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E34" s="50" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F34" s="53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H34" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I34" s="44" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K34" s="2"/>
     </row>
@@ -23719,28 +23514,28 @@
         <v>11</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E35" s="50" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F35" s="53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G35" s="39" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H35" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I35" s="44" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K35" s="82" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" spans="1:11">
@@ -23751,28 +23546,28 @@
         <v>11</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E36" s="50" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F36" s="53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G36" s="39" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H36" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I36" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K36" s="82" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" ht="40.5" spans="1:11">
@@ -23783,28 +23578,28 @@
         <v>11</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E37" s="50" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F37" s="53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G37" s="71" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H37" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I37" s="44" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K37" s="82" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" spans="1:11">
@@ -23815,28 +23610,28 @@
         <v>11</v>
       </c>
       <c r="C38" s="72" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E38" s="50" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F38" s="53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G38" s="39" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H38" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I38" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K38" s="82" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:11">
@@ -23847,28 +23642,28 @@
         <v>11</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E39" s="50" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F39" s="53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G39" s="71" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H39" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I39" s="44" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K39" s="82" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" ht="29" customHeight="1" spans="1:14">
@@ -23879,28 +23674,28 @@
         <v>11</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E40" s="50" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F40" s="53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G40" s="39" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H40" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I40" s="100" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K40" s="95" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="L40" s="95"/>
       <c r="M40" s="95"/>
@@ -23914,28 +23709,28 @@
         <v>11</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F41" s="53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G41" s="71" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H41" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I41" s="100" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K41" s="82" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" ht="81" spans="1:11">
@@ -23946,28 +23741,28 @@
         <v>11</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E42" s="43" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F42" s="53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G42" s="71" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H42" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I42" s="71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K42" s="82" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" ht="81" spans="1:11">
@@ -23978,28 +23773,28 @@
         <v>11</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E43" s="43" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F43" s="53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G43" s="39" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H43" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I43" s="100" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K43" s="82" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" s="2" customFormat="1" ht="40.5" spans="1:15">
@@ -24010,28 +23805,28 @@
         <v>11</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E44" s="43" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F44" s="53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G44" s="39" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H44" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I44" s="71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K44" s="101" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L44" s="95"/>
       <c r="M44" s="95"/>
@@ -24046,28 +23841,28 @@
         <v>11</v>
       </c>
       <c r="C45" s="51" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D45" s="52" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F45" s="73" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G45" s="74" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H45" s="75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I45" s="48" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K45" s="93" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="L45" s="94"/>
       <c r="M45" s="94"/>
@@ -24081,29 +23876,29 @@
         <v>11</v>
       </c>
       <c r="C46" s="36" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E46" s="43" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F46" s="50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G46" s="71" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H46" s="71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I46" s="71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J46" s="102"/>
       <c r="K46" s="97" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="47" s="10" customFormat="1" ht="40.5" spans="1:11">
@@ -24114,29 +23909,29 @@
         <v>11</v>
       </c>
       <c r="C47" s="76" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E47" s="43" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F47" s="50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G47" s="71" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H47" s="53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I47" s="65" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J47" s="102"/>
       <c r="K47" s="97" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" s="10" customFormat="1" ht="256.5" spans="1:11">
@@ -24147,29 +23942,29 @@
         <v>11</v>
       </c>
       <c r="C48" s="36" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D48" s="77" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E48" s="43" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F48" s="50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G48" s="71" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H48" s="53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I48" s="53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J48" s="102"/>
       <c r="K48" s="97" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="49" s="10" customFormat="1" ht="40.5" spans="1:11">
@@ -24180,29 +23975,29 @@
         <v>11</v>
       </c>
       <c r="C49" s="36" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E49" s="43" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F49" s="50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G49" s="71" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H49" s="53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I49" s="53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J49" s="102"/>
       <c r="K49" s="97" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="50" s="2" customFormat="1" ht="270" spans="1:11">
@@ -24213,29 +24008,29 @@
         <v>11</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E50" s="78" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F50" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G50" s="39" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H50" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I50" s="48" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J50" s="48"/>
       <c r="K50" s="82" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" s="38" customFormat="1" ht="18" spans="1:12">
@@ -24258,29 +24053,29 @@
         <v>11</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E52" s="78" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F52" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G52" s="39" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H52" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I52" s="44" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J52" s="44"/>
       <c r="K52" s="103" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="L52" s="103"/>
       <c r="M52" s="103"/>
@@ -24294,29 +24089,29 @@
         <v>11</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E53" s="78" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F53" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G53" s="39" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H53" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I53" s="65" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J53" s="44"/>
       <c r="K53" s="99" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="54" s="2" customFormat="1" ht="34" customHeight="1" spans="1:11">
@@ -24327,29 +24122,29 @@
         <v>11</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E54" s="78" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F54" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G54" s="39" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H54" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I54" s="65" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J54" s="44"/>
       <c r="K54" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="55" s="2" customFormat="1" ht="28.5" spans="1:14">
@@ -24360,29 +24155,29 @@
         <v>11</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E55" s="78" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F55" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G55" s="39" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H55" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I55" s="65" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J55" s="44"/>
       <c r="K55" s="103" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="L55" s="103"/>
       <c r="M55" s="103"/>
@@ -24396,29 +24191,29 @@
         <v>11</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E56" s="78" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F56" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G56" s="39" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H56" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I56" s="44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J56" s="44"/>
       <c r="K56" s="82" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="57" s="2" customFormat="1" ht="81" spans="1:14">
@@ -24429,31 +24224,31 @@
         <v>11</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E57" s="78" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F57" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G57" s="39" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H57" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I57" s="65" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J57" s="44" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="K57" s="104" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="L57" s="104"/>
       <c r="M57" s="104"/>
@@ -24467,29 +24262,29 @@
         <v>11</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E58" s="78" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F58" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G58" s="39" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H58" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I58" s="44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J58" s="44"/>
       <c r="K58" s="82" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="59" s="2" customFormat="1" ht="40.5" spans="1:11">
@@ -24500,31 +24295,31 @@
         <v>11</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E59" s="78" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F59" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G59" s="39" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H59" s="79" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I59" s="44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J59" s="105" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="K59" s="82" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="60" s="2" customFormat="1" ht="94.5" spans="1:11">
@@ -24535,31 +24330,31 @@
         <v>11</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E60" s="78" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F60" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G60" s="39" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H60" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I60" s="65" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J60" s="100" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="K60" s="82" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="61" s="2" customFormat="1" ht="135" spans="1:11">
@@ -24570,31 +24365,31 @@
         <v>11</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E61" s="78" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F61" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G61" s="39" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H61" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I61" s="65" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J61" s="106" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="K61" s="82" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="62" s="2" customFormat="1" spans="1:11">
@@ -24605,29 +24400,29 @@
         <v>11</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E62" s="78" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F62" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G62" s="39" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H62" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I62" s="44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J62" s="44"/>
       <c r="K62" s="82" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="63" s="2" customFormat="1" ht="27" spans="1:11">
@@ -24638,31 +24433,31 @@
         <v>11</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E63" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F63" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G63" s="80" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H63" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I63" s="44" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J63" s="107" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="K63" s="82" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="64" s="38" customFormat="1" ht="18" spans="1:12">
@@ -24685,29 +24480,29 @@
         <v>11</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E65" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F65" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G65" s="39" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H65" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I65" s="44" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J65" s="44"/>
       <c r="K65" s="93" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="L65" s="83"/>
       <c r="M65" s="83"/>
@@ -24733,29 +24528,29 @@
         <v>11</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E67" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F67" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G67" s="39" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H67" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I67" s="44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J67" s="44"/>
       <c r="K67" s="82" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="68" s="2" customFormat="1" ht="81" spans="1:11">
@@ -24766,29 +24561,29 @@
         <v>11</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E68" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F68" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G68" s="39" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H68" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I68" s="44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J68" s="44"/>
       <c r="K68" s="82" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="69" s="2" customFormat="1" ht="67.5" spans="1:11">
@@ -24799,31 +24594,31 @@
         <v>11</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E69" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F69" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G69" s="39" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H69" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I69" s="44" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="J69" s="100" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="K69" s="82" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="70" s="2" customFormat="1" spans="1:11">
@@ -24834,29 +24629,29 @@
         <v>11</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E70" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F70" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G70" s="39" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H70" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I70" s="100" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J70" s="44"/>
       <c r="K70" s="82" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="71" s="2" customFormat="1" ht="22.5" spans="1:15">
@@ -24867,29 +24662,29 @@
         <v>11</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E71" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F71" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G71" s="39" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H71" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I71" s="100" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J71" s="44"/>
       <c r="K71" s="95" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="L71" s="95"/>
       <c r="M71" s="95"/>
@@ -24901,32 +24696,32 @@
         <v>32</v>
       </c>
       <c r="B72" s="50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E72" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F72" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G72" s="39" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H72" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I72" s="44" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J72" s="44"/>
       <c r="K72" s="82" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="73" s="2" customFormat="1" spans="1:11">
@@ -24934,32 +24729,32 @@
         <v>32</v>
       </c>
       <c r="B73" s="50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E73" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F73" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G73" s="39" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H73" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I73" s="44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J73" s="44"/>
       <c r="K73" s="82" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="74" s="2" customFormat="1" spans="1:11">
@@ -24967,32 +24762,32 @@
         <v>32</v>
       </c>
       <c r="B74" s="50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E74" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F74" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G74" s="39" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H74" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I74" s="44" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J74" s="44"/>
       <c r="K74" s="82" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="75" s="2" customFormat="1" spans="1:11">
@@ -25000,32 +24795,32 @@
         <v>32</v>
       </c>
       <c r="B75" s="50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E75" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F75" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G75" s="39" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H75" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I75" s="44" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J75" s="44"/>
       <c r="K75" s="82" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="76" s="10" customFormat="1" ht="108" spans="1:15">
@@ -25033,34 +24828,34 @@
         <v>32</v>
       </c>
       <c r="B76" s="50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D76" s="108" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E76" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F76" s="50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G76" s="71" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H76" s="71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I76" s="96" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J76" s="115" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="K76" s="116" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="L76" s="116"/>
       <c r="M76" s="116"/>
@@ -25072,32 +24867,32 @@
         <v>32</v>
       </c>
       <c r="B77" s="50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E77" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F77" s="50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G77" s="71" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H77" s="71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I77" s="96" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J77" s="115"/>
       <c r="K77" s="97" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="78" s="2" customFormat="1" spans="1:11">
@@ -25105,34 +24900,34 @@
         <v>32</v>
       </c>
       <c r="B78" s="59" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E78" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F78" s="50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G78" s="59" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H78" s="71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I78" s="96" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J78" s="117" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="K78" s="82" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="79" s="2" customFormat="1" spans="1:14">
@@ -25140,28 +24935,28 @@
         <v>32</v>
       </c>
       <c r="B79" s="59" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E79" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F79" s="50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G79" s="59" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H79" s="71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I79" s="96" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J79" s="117"/>
       <c r="K79" s="118"/>
@@ -25177,27 +24972,27 @@
         <v>11</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E80" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F80" s="50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G80" s="71" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H80" s="71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I80" s="71"/>
       <c r="J80" s="96"/>
       <c r="K80" s="92" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="81" s="2" customFormat="1" ht="162" spans="1:11">
@@ -25208,27 +25003,27 @@
         <v>11</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E81" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F81" s="50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G81" s="39" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H81" s="71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I81" s="71"/>
       <c r="J81" s="44"/>
       <c r="K81" s="82" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="82" s="2" customFormat="1" ht="18" spans="1:14">
@@ -25257,31 +25052,31 @@
         <v>11</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E83" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F83" s="50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G83" s="71" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H83" s="105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I83" s="105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J83" s="119" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="K83" s="99" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="84" s="2" customFormat="1" ht="67.5" spans="1:11">
@@ -25292,29 +25087,29 @@
         <v>11</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E84" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F84" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G84" s="39" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H84" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I84" s="105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J84" s="44"/>
       <c r="K84" s="82" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="85" s="2" customFormat="1" spans="1:11">
@@ -25325,31 +25120,31 @@
         <v>11</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E85" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F85" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G85" s="39" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H85" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I85" s="44" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J85" s="120" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="K85" s="82" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="86" s="2" customFormat="1" spans="1:11">
@@ -25360,29 +25155,29 @@
         <v>11</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E86" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F86" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G86" s="39" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H86" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I86" s="105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J86" s="44"/>
       <c r="K86" s="82" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="87" s="2" customFormat="1" ht="27" spans="1:11">
@@ -25393,31 +25188,31 @@
         <v>11</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E87" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F87" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G87" s="39" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H87" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I87" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J87" s="105" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="K87" s="82" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="88" s="2" customFormat="1" ht="67.5" spans="1:11">
@@ -25428,29 +25223,29 @@
         <v>11</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E88" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F88" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G88" s="39" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H88" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I88" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J88" s="44"/>
       <c r="K88" s="82" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="89" s="2" customFormat="1" ht="54" spans="1:15">
@@ -25461,31 +25256,31 @@
         <v>11</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E89" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F89" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G89" s="39" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="H89" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I89" s="44" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J89" s="105" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="K89" s="95" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="L89" s="121"/>
       <c r="M89" s="121"/>
@@ -25500,28 +25295,28 @@
         <v>11</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D90" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="E90" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="F90" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="G90" s="71" t="s">
+        <v>275</v>
+      </c>
+      <c r="H90" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="I90" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="J90" s="105" t="s">
         <v>375</v>
-      </c>
-      <c r="E90" s="73" t="s">
-        <v>135</v>
-      </c>
-      <c r="F90" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="G90" s="71" t="s">
-        <v>280</v>
-      </c>
-      <c r="H90" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="I90" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="J90" s="105" t="s">
-        <v>380</v>
       </c>
       <c r="K90" s="73"/>
       <c r="L90" s="73"/>
@@ -25536,31 +25331,31 @@
         <v>11</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E91" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F91" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G91" s="39" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H91" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I91" s="44" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J91" s="122" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="K91" s="82" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="92" s="2" customFormat="1" ht="121.5" spans="1:15">
@@ -25571,31 +25366,31 @@
         <v>11</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E92" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F92" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G92" s="39" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H92" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I92" s="44" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J92" s="122" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="K92" s="123" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="L92" s="123"/>
       <c r="M92" s="123"/>
@@ -25610,29 +25405,29 @@
         <v>11</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E93" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F93" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G93" s="39" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H93" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I93" s="44" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J93" s="44"/>
       <c r="K93" s="82" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="94" s="2" customFormat="1" spans="1:15">
@@ -25643,29 +25438,29 @@
         <v>11</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="E94" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F94" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G94" s="39" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H94" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I94" s="44" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J94" s="44"/>
       <c r="K94" s="95" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="L94" s="95"/>
       <c r="M94" s="95"/>
@@ -25680,31 +25475,31 @@
         <v>11</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E95" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F95" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G95" s="39" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H95" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I95" s="44" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J95" s="105" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="K95" s="82" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="96" s="2" customFormat="1" ht="18" spans="1:14">
@@ -25733,31 +25528,31 @@
         <v>11</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D97" s="77" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E97" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F97" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G97" s="39" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H97" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I97" s="44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J97" s="120" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="K97" s="82" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="98" s="2" customFormat="1" ht="51.75" spans="1:11">
@@ -25768,29 +25563,29 @@
         <v>11</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D98" s="34" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E98" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F98" s="50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G98" s="39" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H98" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I98" s="44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J98" s="44"/>
       <c r="K98" s="82" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="99" s="2" customFormat="1" spans="1:10">
@@ -25801,28 +25596,28 @@
         <v>11</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E99" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F99" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G99" s="39" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H99" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I99" s="44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J99" s="44" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="100" s="2" customFormat="1" spans="1:11">
@@ -25833,29 +25628,29 @@
         <v>11</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E100" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F100" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G100" s="39" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H100" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I100" s="44" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J100" s="44"/>
       <c r="K100" s="82" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="101" s="2" customFormat="1" ht="135" spans="1:11">
@@ -25866,29 +25661,29 @@
         <v>11</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E101" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F101" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G101" s="39" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H101" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I101" s="44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J101" s="44"/>
       <c r="K101" s="82" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="102" s="2" customFormat="1" ht="27" spans="1:11">
@@ -25899,29 +25694,29 @@
         <v>11</v>
       </c>
       <c r="C102" s="35" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E102" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F102" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G102" s="39" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H102" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I102" s="44" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J102" s="44"/>
       <c r="K102" s="82" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="103" s="2" customFormat="1" ht="54" spans="1:11">
@@ -25932,31 +25727,31 @@
         <v>11</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="E103" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F103" s="50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G103" s="71" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H103" s="71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I103" s="96" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J103" s="119" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="K103" s="82" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="104" s="2" customFormat="1" ht="18" spans="1:14">
@@ -25985,29 +25780,29 @@
         <v>11</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D105" s="35" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="E105" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F105" s="50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G105" s="71" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H105" s="71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I105" s="96" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J105" s="119"/>
       <c r="K105" s="82" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="N105" s="44"/>
     </row>
@@ -26019,29 +25814,29 @@
         <v>11</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D106" s="35" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="E106" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F106" s="50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G106" s="71" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H106" s="71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I106" s="96" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J106" s="119"/>
       <c r="K106" s="82" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="N106" s="44"/>
     </row>
@@ -26053,29 +25848,29 @@
         <v>11</v>
       </c>
       <c r="C107" s="36" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D107" s="37" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E107" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F107" s="50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G107" s="71" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H107" s="71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I107" s="96" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J107" s="44"/>
       <c r="K107" s="82" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="N107" s="44"/>
     </row>
@@ -26087,29 +25882,29 @@
         <v>11</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E108" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F108" s="50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G108" s="71" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H108" s="71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I108" s="96" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J108" s="44"/>
       <c r="K108" s="82" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="N108" s="44"/>
     </row>
@@ -26139,27 +25934,27 @@
         <v>11</v>
       </c>
       <c r="C110" s="109" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D110" s="110" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="E110" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F110" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G110" s="39" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H110" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I110" s="44"/>
       <c r="J110" s="44"/>
       <c r="K110" s="95" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="L110" s="94"/>
       <c r="M110" s="94"/>
@@ -26173,27 +25968,27 @@
         <v>11</v>
       </c>
       <c r="C111" s="70" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D111" s="70" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E111" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F111" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G111" s="53" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H111" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I111" s="44"/>
       <c r="J111" s="44"/>
       <c r="K111" s="95" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L111" s="95"/>
       <c r="M111" s="95"/>
@@ -26204,30 +25999,30 @@
         <v>32</v>
       </c>
       <c r="B112" s="50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E112" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F112" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G112" s="71" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H112" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I112" s="44"/>
       <c r="J112" s="44"/>
       <c r="K112" s="82" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="113" s="2" customFormat="1" spans="1:11">
@@ -26235,30 +26030,30 @@
         <v>32</v>
       </c>
       <c r="B113" s="50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E113" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F113" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G113" s="71" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H113" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I113" s="44"/>
       <c r="J113" s="44"/>
       <c r="K113" s="82" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="114" s="2" customFormat="1" ht="18" spans="1:14">
@@ -26287,27 +26082,27 @@
         <v>11</v>
       </c>
       <c r="C115" s="70" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E115" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F115" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G115" s="39" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H115" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I115" s="44"/>
       <c r="J115" s="44"/>
       <c r="K115" s="82" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="116" s="2" customFormat="1" ht="18" spans="1:14">
@@ -26336,29 +26131,29 @@
         <v>11</v>
       </c>
       <c r="C117" s="70" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E117" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F117" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G117" s="39" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H117" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I117" s="44"/>
       <c r="J117" s="107" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="K117" s="93" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="L117" s="93"/>
       <c r="M117" s="93"/>
@@ -26390,29 +26185,29 @@
         <v>11</v>
       </c>
       <c r="C119" s="36" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D119" s="112" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E119" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F119" s="50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G119" s="71" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H119" s="71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I119" s="71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J119" s="96"/>
       <c r="K119" s="124" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="L119" s="125"/>
       <c r="M119" s="125"/>
@@ -26426,29 +26221,29 @@
         <v>11</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D120" s="112" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E120" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F120" s="50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G120" s="71" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H120" s="71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I120" s="71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J120" s="96"/>
       <c r="K120" s="124" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="L120" s="125"/>
       <c r="M120" s="125"/>
@@ -26462,29 +26257,29 @@
         <v>11</v>
       </c>
       <c r="C121" s="35" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D121" s="113" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E121" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F121" s="114" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G121" s="71" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H121" s="71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I121" s="96" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J121" s="96"/>
       <c r="K121" s="124" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="L121" s="125"/>
       <c r="M121" s="125"/>
@@ -26498,29 +26293,29 @@
         <v>11</v>
       </c>
       <c r="C122" s="35" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D122" s="113" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E122" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F122" s="114" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G122" s="71" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H122" s="71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I122" s="96" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J122" s="96"/>
       <c r="K122" s="124" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="L122" s="125"/>
       <c r="M122" s="125"/>
@@ -26534,29 +26329,29 @@
         <v>11</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D123" s="76" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E123" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F123" s="114" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G123" s="71" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H123" s="71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I123" s="71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J123" s="96"/>
       <c r="K123" s="124" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="L123" s="125"/>
       <c r="M123" s="125"/>
@@ -26570,29 +26365,29 @@
         <v>11</v>
       </c>
       <c r="C124" s="70" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E124" s="73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F124" s="43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G124" s="39" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H124" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I124" s="44"/>
       <c r="J124" s="126" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="K124" s="124" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="L124" s="125"/>
       <c r="M124" s="125"/>
@@ -26779,63 +26574,63 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="27" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="18" spans="1:9">
@@ -26853,111 +26648,111 @@
     </row>
     <row r="12" s="2" customFormat="1" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="10" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="10" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="10" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="10" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="18" spans="1:9">
@@ -26975,257 +26770,257 @@
     </row>
     <row r="28" s="2" customFormat="1" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" spans="1:2">
       <c r="A34" s="10" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" spans="1:2">
       <c r="A35" s="10" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" spans="1:2">
       <c r="A36" s="10" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" spans="1:2">
       <c r="A37" s="10" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" spans="1:2">
       <c r="A38" s="10" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:2">
       <c r="A39" s="10" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" ht="27" spans="1:2">
       <c r="A40" s="10" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" spans="1:2">
       <c r="A41" s="10" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" spans="1:2">
       <c r="A42" s="10" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="44" s="2" customFormat="1" spans="1:1">
       <c r="A44" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="1" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" spans="1:2">
       <c r="A46" s="10" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" spans="1:2">
       <c r="A47" s="2" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="48" s="2" customFormat="1" spans="1:2">
       <c r="A48" s="10" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="49" s="2" customFormat="1" ht="67.5" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="53" ht="27" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="61" ht="162" spans="1:2">
       <c r="A61" s="2" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="2" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="64" ht="216" spans="1:2">
       <c r="A64" s="2" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" ht="18" spans="1:9">
@@ -27243,18 +27038,18 @@
     </row>
     <row r="66" s="2" customFormat="1" spans="1:2">
       <c r="A66" s="2" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="67" ht="40.5" spans="1:2">
       <c r="A67" s="2" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" ht="18" spans="1:9">
@@ -27272,58 +27067,58 @@
     </row>
     <row r="69" s="2" customFormat="1" spans="1:2">
       <c r="A69" s="2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="76" spans="2:2">
@@ -27331,58 +27126,58 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="78" ht="27" spans="1:2">
       <c r="A78" s="2" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:2">
       <c r="A79" s="2" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="80" ht="14.25" spans="1:2">
       <c r="A80" s="15" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="81" ht="14.25" spans="1:2">
       <c r="A81" s="2" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="82" ht="27" spans="1:2">
       <c r="A82" s="2" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="84" s="3" customFormat="1" ht="18" spans="1:12">
@@ -27399,18 +27194,18 @@
     </row>
     <row r="85" s="2" customFormat="1" spans="1:2">
       <c r="A85" s="2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="86" s="2" customFormat="1" spans="1:2">
       <c r="A86" s="2" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="87" s="3" customFormat="1" ht="18" spans="1:12">
@@ -27427,58 +27222,58 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="94" ht="16.5" spans="1:2">
       <c r="A94" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="95" s="2" customFormat="1" ht="16.5" spans="1:2">
@@ -27487,66 +27282,66 @@
     </row>
     <row r="96" s="2" customFormat="1" spans="1:2">
       <c r="A96" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="97" s="2" customFormat="1" spans="1:2">
       <c r="A97" s="2" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="98" s="2" customFormat="1" spans="1:2">
       <c r="A98" s="2" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="99" s="2" customFormat="1" spans="1:2">
       <c r="A99" s="2" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B99" s="24" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="100" s="2" customFormat="1" spans="1:2">
       <c r="A100" s="2" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B100" s="21" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="101" s="2" customFormat="1" spans="1:2">
       <c r="A101" s="2" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="102" s="2" customFormat="1" spans="1:2">
       <c r="A102" s="10" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="103" s="2" customFormat="1" ht="16.5" spans="1:2">
       <c r="A103" s="22" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="104" s="2" customFormat="1" ht="16.5" spans="1:1">
@@ -27554,28 +27349,28 @@
     </row>
     <row r="105" s="2" customFormat="1" spans="1:1">
       <c r="A105" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="106" s="2" customFormat="1" ht="40.5" spans="1:2">
       <c r="A106" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="108" s="2" customFormat="1" spans="1:1">
       <c r="A108" s="2" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="109" ht="81" spans="1:2">
       <c r="A109" s="15" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="110" s="3" customFormat="1" ht="18" spans="1:12">
@@ -27592,122 +27387,122 @@
     </row>
     <row r="111" s="2" customFormat="1" spans="1:2">
       <c r="A111" s="2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="112" s="2" customFormat="1" spans="1:2">
       <c r="A112" s="10" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B112" s="26" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="113" s="2" customFormat="1" spans="1:2">
       <c r="A113" s="2" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="114" s="2" customFormat="1" spans="1:2">
       <c r="A114" s="2" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="115" s="2" customFormat="1" spans="1:2">
       <c r="A115" s="2" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="116" s="2" customFormat="1" spans="1:2">
       <c r="A116" s="2" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="117" s="2" customFormat="1" spans="1:2">
       <c r="A117" s="2" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="118" s="2" customFormat="1" spans="1:2">
       <c r="A118" s="27" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="119" s="2" customFormat="1" spans="1:2">
       <c r="A119" s="2" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="120" s="2" customFormat="1" spans="1:2">
       <c r="A120" s="2" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="121" s="2" customFormat="1" spans="1:2">
       <c r="A121" s="2" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="123" s="2" customFormat="1" spans="1:2">
       <c r="A123" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="124" s="2" customFormat="1" spans="1:2">
       <c r="A124" s="2" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="125" s="2" customFormat="1" spans="1:2">
       <c r="A125" s="2" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="126" s="2" customFormat="1" spans="1:2">
       <c r="A126" s="2" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="127" s="2" customFormat="1" ht="18" spans="1:14">
@@ -27730,50 +27525,50 @@
     </row>
     <row r="128" s="2" customFormat="1" spans="1:2">
       <c r="A128" s="2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="32" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="B129" s="32" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="32" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B130" s="32" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="32" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B131" s="32" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="32" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B132" s="32" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="32" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="B133" s="32" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="134" s="2" customFormat="1" spans="1:2">
@@ -27782,26 +27577,26 @@
     </row>
     <row r="135" s="2" customFormat="1" spans="1:2">
       <c r="A135" s="32" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B135" s="32" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="32" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="B136" s="32" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="32" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B137" s="32" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="138" s="2" customFormat="1" ht="18" spans="1:14">
@@ -27824,18 +27619,18 @@
     </row>
     <row r="139" s="2" customFormat="1" spans="1:2">
       <c r="A139" s="2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="140" s="2" customFormat="1" spans="1:2">
       <c r="A140" s="32" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="B140" s="32" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="141" s="2" customFormat="1" spans="1:2">
@@ -27844,15 +27639,15 @@
     </row>
     <row r="142" s="2" customFormat="1" spans="1:1">
       <c r="A142" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="143" s="2" customFormat="1" spans="1:2">
       <c r="A143" s="10" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="B143" s="33" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="144" s="2" customFormat="1" spans="2:2">
@@ -27860,15 +27655,15 @@
     </row>
     <row r="145" s="2" customFormat="1" spans="1:1">
       <c r="A145" s="2" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="146" s="2" customFormat="1" ht="34.5" spans="1:2">
       <c r="A146" s="15" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B146" s="34" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="147" s="2" customFormat="1" ht="18" spans="1:14">
@@ -27891,50 +27686,50 @@
     </row>
     <row r="148" s="2" customFormat="1" spans="1:2">
       <c r="A148" s="2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="B149" s="35" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="151" s="2" customFormat="1" spans="1:2">
       <c r="A151" s="32" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B151" s="32" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="10" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B152" s="35" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="36" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B153" s="37" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="155" s="2" customFormat="1" ht="18" spans="1:14">
@@ -27957,50 +27752,50 @@
     </row>
     <row r="156" s="2" customFormat="1" spans="1:2">
       <c r="A156" s="2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="160" s="2" customFormat="1" spans="1:2">
       <c r="A160" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="163" s="2" customFormat="1" ht="18" spans="1:14">
@@ -28023,18 +27818,18 @@
     </row>
     <row r="164" s="2" customFormat="1" spans="1:2">
       <c r="A164" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="166" s="2" customFormat="1" ht="18" spans="1:14">
@@ -28057,15 +27852,15 @@
     </row>
     <row r="167" s="2" customFormat="1" spans="1:1">
       <c r="A167" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="168" s="2" customFormat="1" spans="1:2">
       <c r="A168" s="10" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="169" s="2" customFormat="1" ht="18" spans="1:14">
@@ -28088,26 +27883,26 @@
     </row>
     <row r="170" s="2" customFormat="1" spans="1:2">
       <c r="A170" s="2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="10" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="10" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
     </row>
     <row r="173" s="2" customFormat="1" spans="1:2">
@@ -28116,34 +27911,34 @@
     </row>
     <row r="174" s="2" customFormat="1" spans="1:2">
       <c r="A174" s="10" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="10" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="10" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="10" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -28152,16 +27947,16 @@
     </row>
     <row r="179" s="2" customFormat="1" spans="1:2">
       <c r="A179" s="10" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B179" s="10"/>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="10" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>

--- a/引擎插件3.0.xlsx
+++ b/引擎插件3.0.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636">
   <si>
     <t>分类</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>添加Icon带网格的功能，并可配置是否显示网格。</t>
     </r>
     <r>
@@ -273,24 +279,6 @@
       </rPr>
       <t>也改了</t>
     </r>
-  </si>
-  <si>
-    <t>新增</t>
-  </si>
-  <si>
-    <t>uexMQTT(android) 鄢龙涛</t>
-  </si>
-  <si>
-    <t>新增uexMQTT插件 邮件里有case</t>
-  </si>
-  <si>
-    <t>黄锦</t>
-  </si>
-  <si>
-    <t>uexMQTT (ios)刘康立</t>
-  </si>
-  <si>
-    <t>新增uexMQTT插件</t>
   </si>
   <si>
     <r>
@@ -823,6 +811,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <charset val="134"/>
+      </rPr>
       <t>uexWheelPickView</t>
     </r>
     <r>
@@ -990,28 +984,7 @@
     </r>
   </si>
   <si>
-    <t>uexCamera360-3.0.0   (ios)</t>
-  </si>
-  <si>
-    <t>该插件只支持最新版本服务器打包，请在打包时选择公测服务器。并在测试时，先根据接入文档申请对应的信息，否则可能出现崩溃的问题。</t>
-  </si>
-  <si>
-    <t>发布</t>
-  </si>
-  <si>
-    <t>不支持</t>
-  </si>
-  <si>
-    <t>https://fs.appcan.cn/uploads/2016/04/14//11492689_iphone_00.00.0002_000_44935_0.ipa</t>
-  </si>
-  <si>
-    <t>uexCamera360-3.0.0   (android)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 该插件只支持最新版本服务器打包，请在打包时选择公测服务器。并在测试时，先根据接入文档申请对应的信息，否则可能出现崩溃的问题。</t>
-  </si>
-  <si>
-    <t>http://fs.appcan.cn/uploads/2016/05/04//11492689_android_00.00.0004_000_50203_0.apk</t>
+    <t>新增</t>
   </si>
   <si>
     <t>uexPage （IOS）</t>
@@ -1054,21 +1027,6 @@
   </si>
   <si>
     <t>https://fs.appcan.cn/uploads/2016/05/17//11534836_iphone_00.00.0000_000_55479_0.ipa</t>
-  </si>
-  <si>
-    <t>uexRongCloud 3.0.0 （android）龙涛</t>
-  </si>
-  <si>
-    <t>新增融云插件</t>
-  </si>
-  <si>
-    <t>张智煌</t>
-  </si>
-  <si>
-    <t>uexRongCloud 3.0.0 (IOS)杨广</t>
-  </si>
-  <si>
-    <t>新增融云插件， 插件依赖引擎3.3,请和安卓一并测试</t>
   </si>
   <si>
     <t>uexConversationView （android）龙涛</t>
@@ -1098,22 +1056,19 @@
     <t>李元文</t>
   </si>
   <si>
-    <t>uexRongCloud (android)鄢龙涛</t>
-  </si>
-  <si>
-    <t>修改内容：更新sdk，与iOS统一字段</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://fs.appcan.cn/uploads/2016/07/07//11521071_android_00.00.0005_000_87016_0.apk </t>
-  </si>
-  <si>
-    <t>uexRongCloud (ios)杨广</t>
-  </si>
-  <si>
-    <t>更新SDK到V2.5.2-Stable，支持ivp6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://fs.appcan.cn/uploads/2016/07/08//11521071_iphone_00.00.0007_000_53137_0.ipa </t>
+    <t>uexMQTT(android) 鄢龙涛</t>
+  </si>
+  <si>
+    <t>新增uexMQTT插件 邮件里有case</t>
+  </si>
+  <si>
+    <t>黄锦</t>
+  </si>
+  <si>
+    <t>uexMQTT (ios)刘康立</t>
+  </si>
+  <si>
+    <t>新增uexMQTT插件</t>
   </si>
   <si>
     <t>文档更新</t>
@@ -1132,6 +1087,12 @@
   </si>
   <si>
     <t>是</t>
+  </si>
+  <si>
+    <t>发布</t>
+  </si>
+  <si>
+    <t>不支持</t>
   </si>
   <si>
     <t>https://fs.appcan.cn/uploads/2016/04/13//11523123_iphone_00.00.0000_000_5275_0.ipa</t>
@@ -1224,6 +1185,9 @@
   </si>
   <si>
     <t>优化对3.3引擎下非string参数造成闪退的情况进行了处理</t>
+  </si>
+  <si>
+    <t>张智煌</t>
   </si>
   <si>
     <t xml:space="preserve">https://fs.appcan.cn/uploads/2016/03/31//11508549_iphone_00.00.0003_000_83561_0.ipa </t>
@@ -1402,7 +1366,19 @@
     <t>https://fs.appcan.cn/uploads/2016/05/04//11530076_iphone_00.00.0000_000_37600_0.ipa</t>
   </si>
   <si>
+    <t>uexCamera360-3.0.0   (ios)</t>
+  </si>
+  <si>
     <t>新增Camera360图片编辑插件</t>
+  </si>
+  <si>
+    <t>https://fs.appcan.cn/uploads/2016/04/14//11492689_iphone_00.00.0002_000_44935_0.ipa</t>
+  </si>
+  <si>
+    <t>uexCamera360-3.0.0   (android)</t>
+  </si>
+  <si>
+    <t>http://fs.appcan.cn/uploads/2016/05/04//11492689_android_00.00.0004_000_50203_0.apk</t>
   </si>
   <si>
     <t>uexLocation-3.0.26 （IOS）杨广</t>
@@ -2570,6 +2546,24 @@
 </t>
   </si>
   <si>
+    <t>uexRongCloud (android)鄢龙涛</t>
+  </si>
+  <si>
+    <t>修改内容：更新sdk，与iOS统一字段</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://fs.appcan.cn/uploads/2016/07/07//11521071_android_00.00.0005_000_87016_0.apk </t>
+  </si>
+  <si>
+    <t>uexRongCloud (ios)杨广</t>
+  </si>
+  <si>
+    <t>更新SDK到V2.5.2-Stable，支持ivp6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://fs.appcan.cn/uploads/2016/07/08//11521071_iphone_00.00.0007_000_53137_0.ipa </t>
+  </si>
+  <si>
     <t>uexContact (android)  鄢龙涛</t>
   </si>
   <si>
@@ -3293,6 +3287,9 @@
     <t>2.uexRongCloud</t>
   </si>
   <si>
+    <t>新增融云插件</t>
+  </si>
+  <si>
     <t>1.uexImage</t>
   </si>
   <si>
@@ -3322,10 +3319,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="55">
     <font>
@@ -3501,45 +3498,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3562,9 +3521,71 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3582,7 +3603,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -3590,32 +3610,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3732,7 +3729,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3756,103 +3891,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3868,54 +3913,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -3926,11 +3923,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3950,17 +3977,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3988,41 +4020,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4031,10 +4028,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4043,10 +4040,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4055,7 +4052,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4070,125 +4067,125 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4576,27 +4573,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="25" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4614,9 +4590,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="9" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -4991,10 +4964,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5051,7 +5024,7 @@
       <c r="B2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="145" t="s">
+      <c r="C2" s="137" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="35" t="s">
@@ -5124,7 +5097,7 @@
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="146" t="s">
+      <c r="D7" s="138" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5262,219 +5235,213 @@
       </c>
       <c r="I14" s="39"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" s="10" customFormat="1" ht="27" spans="1:9">
       <c r="A15" s="49" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B15" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="50"/>
+      <c r="F15" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="96"/>
+      <c r="I15" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="43"/>
-      <c r="I15" s="43" t="s">
+    </row>
+    <row r="16" s="10" customFormat="1" ht="27" spans="1:9">
+      <c r="A16" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="109" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="112" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="50"/>
+      <c r="F16" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="96"/>
+      <c r="I16" s="127" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="43"/>
-      <c r="I16" s="43" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" s="10" customFormat="1" ht="27" spans="1:9">
+    </row>
+    <row r="17" s="10" customFormat="1" spans="1:9">
       <c r="A17" s="49" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="109" t="s">
+      <c r="C17" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="112" t="s">
-        <v>54</v>
-      </c>
       <c r="E17" s="50"/>
-      <c r="F17" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="50" t="s">
-        <v>36</v>
-      </c>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
       <c r="H17" s="96"/>
-      <c r="I17" s="127" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" s="10" customFormat="1" ht="27" spans="1:9">
+      <c r="I17" s="71"/>
+    </row>
+    <row r="18" s="10" customFormat="1" spans="1:9">
       <c r="A18" s="49" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="109" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="112" t="s">
+      <c r="C18" s="35" t="s">
         <v>54</v>
       </c>
+      <c r="D18" s="110" t="s">
+        <v>53</v>
+      </c>
       <c r="E18" s="50"/>
-      <c r="F18" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="50" t="s">
-        <v>36</v>
-      </c>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
       <c r="H18" s="96"/>
-      <c r="I18" s="127" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" s="10" customFormat="1" spans="1:9">
+      <c r="I18" s="71"/>
+    </row>
+    <row r="19" s="10" customFormat="1" ht="54" spans="1:9">
       <c r="A19" s="49" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B19" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="110" t="s">
-        <v>59</v>
+      <c r="C19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>56</v>
       </c>
       <c r="E19" s="50"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
+      <c r="F19" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="50" t="s">
+        <v>36</v>
+      </c>
       <c r="H19" s="96"/>
-      <c r="I19" s="71"/>
-    </row>
-    <row r="20" s="10" customFormat="1" spans="1:9">
+      <c r="I19" s="127" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" ht="17.25" spans="1:9">
       <c r="A20" s="49" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B20" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="110" t="s">
+      <c r="C20" s="139" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="50"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="71"/>
-    </row>
-    <row r="21" s="10" customFormat="1" ht="54" spans="1:9">
+      <c r="I20" s="39"/>
+    </row>
+    <row r="21" ht="40.5" spans="1:9">
       <c r="A21" s="49" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="139" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="G21" s="43"/>
+      <c r="I21" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="50"/>
-      <c r="F21" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="96"/>
-      <c r="I21" s="127" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" ht="17.25" spans="1:9">
+    </row>
+    <row r="22" s="10" customFormat="1" spans="1:9">
       <c r="A22" s="49" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B22" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="147" t="s">
+      <c r="C22" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="112" t="s">
-        <v>65</v>
-      </c>
-      <c r="I22" s="39"/>
-    </row>
-    <row r="23" ht="40.5" spans="1:9">
+      <c r="E22" s="114"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="127"/>
+    </row>
+    <row r="23" ht="27" spans="1:9">
       <c r="A23" s="49" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="147" t="s">
+      <c r="C23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="112" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" s="43"/>
-      <c r="I23" s="43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" s="10" customFormat="1" spans="1:9">
+      <c r="I23" s="39"/>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="49" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B24" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="76" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="114"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="127"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="127"/>
-    </row>
-    <row r="25" ht="27" spans="1:9">
+      <c r="C24" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="140" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" s="39"/>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="49" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>72</v>
+      <c r="C25" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>70</v>
       </c>
       <c r="I25" s="39"/>
     </row>
@@ -5486,14 +5453,14 @@
         <v>11</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="148" t="s">
-        <v>74</v>
+        <v>71</v>
+      </c>
+      <c r="D26" s="110" t="s">
+        <v>72</v>
       </c>
       <c r="I26" s="39"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" s="2" customFormat="1" ht="26.25" spans="1:9">
       <c r="A27" s="49" t="s">
         <v>10</v>
       </c>
@@ -5501,29 +5468,33 @@
         <v>11</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>76</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D27" s="141" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="43"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="44"/>
       <c r="I27" s="39"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" ht="34.5" spans="1:9">
       <c r="A28" s="49" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="110" t="s">
-        <v>78</v>
+      <c r="C28" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>76</v>
       </c>
       <c r="I28" s="39"/>
     </row>
-    <row r="29" s="2" customFormat="1" ht="26.25" spans="1:9">
+    <row r="29" spans="1:9">
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
@@ -5531,76 +5502,42 @@
         <v>11</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="149" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" s="43"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="44"/>
+        <v>77</v>
+      </c>
+      <c r="D29" s="110" t="s">
+        <v>78</v>
+      </c>
       <c r="I29" s="39"/>
     </row>
-    <row r="30" ht="34.5" spans="1:9">
+    <row r="30" ht="27" spans="1:9">
       <c r="A30" s="49" t="s">
         <v>10</v>
       </c>
       <c r="B30" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="70" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>82</v>
+      <c r="C30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="I30" s="39"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" ht="121.5" spans="1:9">
       <c r="A31" s="49" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="110" t="s">
-        <v>84</v>
+      <c r="C31" s="139" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="142" t="s">
+        <v>82</v>
       </c>
       <c r="I31" s="39"/>
-    </row>
-    <row r="32" ht="27" spans="1:9">
-      <c r="A32" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="I32" s="39"/>
-    </row>
-    <row r="33" ht="121.5" spans="1:9">
-      <c r="A33" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="147" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="150" t="s">
-        <v>88</v>
-      </c>
-      <c r="I33" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -5611,13 +5548,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="14.8333333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="39" customWidth="1"/>
@@ -5664,294 +5601,177 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="40" customFormat="1" ht="33" spans="1:10">
-      <c r="A2" s="129" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:10">
+      <c r="A2" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="130" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="131" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="131" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="132" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="130" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="133" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="134" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" s="134"/>
-      <c r="J2" s="142" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" s="40" customFormat="1" ht="33" spans="1:10">
-      <c r="A3" s="135" t="s">
+      <c r="B2" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="129" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="50"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="135" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:10">
+      <c r="A3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="130" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="131" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="131" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="132" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="130" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="133" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>92</v>
-      </c>
-      <c r="I3" s="134"/>
-      <c r="J3" s="142" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:10">
+      <c r="B3" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="129" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="50"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="135" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" s="10" customFormat="1" spans="1:9">
       <c r="A4" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="22" t="s">
+      <c r="B4" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="50"/>
+      <c r="F4" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="71"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="102" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" s="32" customFormat="1" ht="27" spans="1:10">
+      <c r="A5" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="50"/>
+      <c r="F5" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="J5" s="136" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="136" t="s">
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:9">
+      <c r="A6" s="130" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="131" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="132" t="s">
         <v>98</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="D6" s="133" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="143" t="s">
+      <c r="E6" s="131"/>
+      <c r="F6" s="134" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:10">
-      <c r="A5" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="136" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="143" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" s="10" customFormat="1" spans="1:9">
-      <c r="A6" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="71" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="71"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="102" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" s="32" customFormat="1" ht="27" spans="1:10">
+      <c r="G6" s="39"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+    </row>
+    <row r="7" customFormat="1" spans="1:9">
       <c r="A7" s="49" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7" s="43"/>
+      <c r="H7"/>
+      <c r="I7" s="43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:9">
+      <c r="A8" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="I7" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="J7" s="144" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="1:10">
-      <c r="A8" s="111" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="71" t="s">
-        <v>113</v>
-      </c>
-      <c r="G8" s="71"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="1:9">
-      <c r="A9" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="1:9">
-      <c r="A10" s="137" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="138" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="139" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="140" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="138"/>
-      <c r="F10" s="141" t="s">
-        <v>118</v>
-      </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="111" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="71" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="82" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="111" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="71" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="82" t="s">
-        <v>124</v>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8" s="43"/>
+      <c r="H8"/>
+      <c r="I8" s="43" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" display="https://fs.appcan.cn/uploads/2016/04/14//11492689_iphone_00.00.0002_000_44935_0.ipa" tooltip="https://fs.appcan.cn/uploads/2016/04/14//11492689_iphone_00.00.0002_000_44935_0.ipa"/>
-    <hyperlink ref="J3" r:id="rId2" display="http://fs.appcan.cn/uploads/2016/05/04//11492689_android_00.00.0004_000_50203_0.apk" tooltip="http://fs.appcan.cn/uploads/2016/05/04//11492689_android_00.00.0004_000_50203_0.apk"/>
-    <hyperlink ref="J7" r:id="rId3" display="https://fs.appcan.cn/uploads/2016/05/17//11534836_iphone_00.00.0000_000_55479_0.ipa"/>
-    <hyperlink ref="J11" r:id="rId4" display="http://fs.appcan.cn/uploads/2016/07/07//11521071_android_00.00.0005_000_87016_0.apk "/>
-    <hyperlink ref="J12" r:id="rId5" display="https://fs.appcan.cn/uploads/2016/07/08//11521071_iphone_00.00.0007_000_53137_0.ipa "/>
+    <hyperlink ref="J5" r:id="rId1" display="https://fs.appcan.cn/uploads/2016/05/17//11534836_iphone_00.00.0000_000_55479_0.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -6018,10 +5838,10 @@
         <v>11</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F2" s="71" t="s">
         <v>35</v>
@@ -6030,7 +5850,7 @@
         <v>36</v>
       </c>
       <c r="H2" s="127" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I2" s="96"/>
     </row>
@@ -6046,9 +5866,9 @@
   <dimension ref="A1:XFD124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C119" sqref="C119:D124"/>
+      <selection pane="bottomLeft" activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -6102,7 +5922,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="F2" s="48" t="s">
         <v>4</v>
@@ -6111,10 +5931,10 @@
         <v>5</v>
       </c>
       <c r="H2" s="45" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="I2" s="81" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="J2" s="81" t="s">
         <v>8</v>
@@ -6134,16 +5954,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F3" s="53" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G3" s="39" t="s">
         <v>35</v>
@@ -6152,10 +5972,10 @@
         <v>40</v>
       </c>
       <c r="I3" s="50" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="K3" s="82" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="L3" s="44"/>
       <c r="M3" s="44"/>
@@ -6168,16 +5988,16 @@
         <v>11</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G4" s="39" t="s">
         <v>35</v>
@@ -6189,7 +6009,7 @@
         <v>40</v>
       </c>
       <c r="K4" s="83" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="L4" s="84"/>
       <c r="M4" s="84"/>
@@ -6203,19 +6023,19 @@
         <v>11</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G5" s="50" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H5" s="50" t="s">
         <v>40</v>
@@ -6224,7 +6044,7 @@
         <v>40</v>
       </c>
       <c r="K5" s="85" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="66" spans="1:11">
@@ -6235,19 +6055,19 @@
         <v>11</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H6" s="50" t="s">
         <v>40</v>
@@ -6256,7 +6076,7 @@
         <v>40</v>
       </c>
       <c r="K6" s="85" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="66" spans="1:14">
@@ -6264,19 +6084,19 @@
         <v>10</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G7" s="59" t="s">
         <v>35</v>
@@ -6285,10 +6105,10 @@
         <v>40</v>
       </c>
       <c r="I7" s="45" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="K7" s="86" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="L7" s="87"/>
       <c r="M7" s="87"/>
@@ -6299,19 +6119,19 @@
         <v>10</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G8" s="43" t="s">
         <v>35</v>
@@ -6320,10 +6140,10 @@
         <v>40</v>
       </c>
       <c r="I8" s="88" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="K8" s="89" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" s="38" customFormat="1" ht="18" spans="1:13">
@@ -6346,19 +6166,19 @@
         <v>11</v>
       </c>
       <c r="C10" s="51" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F10" s="53" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H10" s="50" t="s">
         <v>40</v>
@@ -6367,7 +6187,7 @@
         <v>40</v>
       </c>
       <c r="K10" s="82" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="40.5" spans="1:11">
@@ -6378,19 +6198,19 @@
         <v>11</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="E11" s="50" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F11" s="53" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H11" s="50" t="s">
         <v>40</v>
@@ -6399,7 +6219,7 @@
         <v>40</v>
       </c>
       <c r="K11" s="82" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="27" spans="1:11">
@@ -6410,19 +6230,19 @@
         <v>11</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F12" s="53" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H12" s="50" t="s">
         <v>40</v>
@@ -6431,7 +6251,7 @@
         <v>40</v>
       </c>
       <c r="K12" s="82" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:11">
@@ -6442,28 +6262,28 @@
         <v>11</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F13" s="53" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H13" s="50" t="s">
         <v>40</v>
       </c>
       <c r="I13" s="91" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="K13" s="82" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="27" spans="1:11">
@@ -6474,28 +6294,28 @@
         <v>11</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F14" s="53" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="H14" s="50" t="s">
         <v>40</v>
       </c>
       <c r="I14" s="50" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="K14" s="82" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:11">
@@ -6506,28 +6326,28 @@
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="E15" s="50" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F15" s="53" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="H15" s="50" t="s">
         <v>40</v>
       </c>
       <c r="I15" s="50" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="K15" s="82" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="27" spans="1:11">
@@ -6538,28 +6358,28 @@
         <v>11</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F16" s="53" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H16" s="50" t="s">
         <v>40</v>
       </c>
       <c r="I16" s="50" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="K16" s="82" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" s="10" customFormat="1" spans="1:11">
@@ -6570,28 +6390,28 @@
         <v>11</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="E17" s="50" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F17" s="53" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H17" s="50" t="s">
         <v>40</v>
       </c>
       <c r="I17" s="50" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="K17" s="92" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="49.5" spans="1:11">
@@ -6602,19 +6422,19 @@
         <v>11</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="E18" s="50" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F18" s="53" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H18" s="50" t="s">
         <v>40</v>
@@ -6623,7 +6443,7 @@
         <v>40</v>
       </c>
       <c r="K18" s="82" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:11">
@@ -6634,19 +6454,19 @@
         <v>11</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="E19" s="50" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F19" s="53" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H19" s="50" t="s">
         <v>40</v>
@@ -6655,7 +6475,7 @@
         <v>40</v>
       </c>
       <c r="K19" s="82" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" s="39" customFormat="1" ht="17.25" spans="1:14">
@@ -6663,19 +6483,19 @@
         <v>10</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C20" s="67" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="E20" s="50" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F20" s="53" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G20" s="39" t="s">
         <v>35</v>
@@ -6684,10 +6504,10 @@
         <v>40</v>
       </c>
       <c r="I20" s="44" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="K20" s="93" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="L20" s="94"/>
       <c r="M20" s="94"/>
@@ -6698,19 +6518,19 @@
         <v>10</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C21" s="67" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="E21" s="50" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F21" s="53" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G21" s="39" t="s">
         <v>35</v>
@@ -6722,7 +6542,7 @@
         <v>40</v>
       </c>
       <c r="K21" s="83" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="L21" s="94"/>
       <c r="M21" s="94"/>
@@ -6748,28 +6568,28 @@
         <v>11</v>
       </c>
       <c r="C23" s="68" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="E23" s="50" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F23" s="53" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="H23" s="50" t="s">
         <v>40</v>
       </c>
       <c r="I23" s="65" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="K23" s="82" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" ht="108" spans="1:11">
@@ -6780,28 +6600,28 @@
         <v>11</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="E24" s="50" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F24" s="53" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G24" s="69" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="H24" s="50" t="s">
         <v>40</v>
       </c>
       <c r="I24" s="65" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="K24" s="82" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" ht="27" spans="1:15">
@@ -6812,19 +6632,19 @@
         <v>11</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F25" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="H25" s="39" t="s">
         <v>40</v>
@@ -6833,7 +6653,7 @@
         <v>40</v>
       </c>
       <c r="K25" s="95" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="L25" s="95"/>
       <c r="M25" s="95"/>
@@ -6848,28 +6668,28 @@
         <v>11</v>
       </c>
       <c r="C26" s="70" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="E26" s="50" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F26" s="53" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G26" s="71" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H26" s="50" t="s">
         <v>40</v>
       </c>
       <c r="I26" s="96" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="K26" s="97" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" spans="1:14">
@@ -6877,19 +6697,19 @@
         <v>10</v>
       </c>
       <c r="B27" s="50" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>89</v>
+        <v>178</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F27" s="53" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G27" s="50" t="s">
         <v>35</v>
@@ -6898,10 +6718,10 @@
         <v>40</v>
       </c>
       <c r="I27" s="48" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="K27" s="98" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="L27" s="98"/>
       <c r="M27" s="98"/>
@@ -6912,19 +6732,19 @@
         <v>10</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="E28" s="43" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F28" s="53" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G28" s="50" t="s">
         <v>35</v>
@@ -6933,10 +6753,10 @@
         <v>40</v>
       </c>
       <c r="I28" s="48" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="K28" s="98" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="L28" s="98"/>
       <c r="M28" s="98"/>
@@ -6950,16 +6770,16 @@
         <v>11</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="E29" s="50" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F29" s="53" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G29" s="39" t="s">
         <v>35</v>
@@ -6968,10 +6788,10 @@
         <v>40</v>
       </c>
       <c r="I29" s="96" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="K29" s="99" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:11">
@@ -6982,16 +6802,16 @@
         <v>11</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="E30" s="50" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F30" s="53" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G30" s="39" t="s">
         <v>35</v>
@@ -7000,10 +6820,10 @@
         <v>40</v>
       </c>
       <c r="I30" s="96" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="K30" s="82" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" ht="34.5" spans="1:11">
@@ -7014,16 +6834,16 @@
         <v>11</v>
       </c>
       <c r="C31" s="70" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="E31" s="50" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F31" s="53" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G31" s="39" t="s">
         <v>35</v>
@@ -7032,10 +6852,10 @@
         <v>40</v>
       </c>
       <c r="I31" s="96" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="K31" s="82" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" s="39" customFormat="1" ht="34.5" spans="1:11">
@@ -7046,16 +6866,16 @@
         <v>11</v>
       </c>
       <c r="C32" s="70" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="E32" s="50" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F32" s="53" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G32" s="39" t="s">
         <v>35</v>
@@ -7064,10 +6884,10 @@
         <v>40</v>
       </c>
       <c r="I32" s="96" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="K32" s="82" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" s="40" customFormat="1" ht="40.5" spans="1:16384">
@@ -7078,16 +6898,16 @@
         <v>11</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E33" s="50" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F33" s="53" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G33" s="39" t="s">
         <v>35</v>
@@ -7096,11 +6916,11 @@
         <v>40</v>
       </c>
       <c r="I33" s="44" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="J33" s="39"/>
       <c r="K33" s="93" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="L33" s="94"/>
       <c r="M33" s="94"/>
@@ -23484,16 +23304,16 @@
         <v>11</v>
       </c>
       <c r="C34" s="70" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="E34" s="50" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F34" s="53" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G34" s="39" t="s">
         <v>35</v>
@@ -23502,7 +23322,7 @@
         <v>40</v>
       </c>
       <c r="I34" s="44" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="K34" s="2"/>
     </row>
@@ -23514,28 +23334,28 @@
         <v>11</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="E35" s="50" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F35" s="53" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G35" s="39" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H35" s="50" t="s">
         <v>40</v>
       </c>
       <c r="I35" s="44" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="K35" s="82" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" spans="1:11">
@@ -23546,19 +23366,19 @@
         <v>11</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="E36" s="50" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F36" s="53" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G36" s="39" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H36" s="50" t="s">
         <v>40</v>
@@ -23567,7 +23387,7 @@
         <v>40</v>
       </c>
       <c r="K36" s="82" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" ht="40.5" spans="1:11">
@@ -23578,28 +23398,28 @@
         <v>11</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="E37" s="50" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F37" s="53" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G37" s="71" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H37" s="50" t="s">
         <v>40</v>
       </c>
       <c r="I37" s="44" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="K37" s="82" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" spans="1:11">
@@ -23610,19 +23430,19 @@
         <v>11</v>
       </c>
       <c r="C38" s="72" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="E38" s="50" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F38" s="53" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G38" s="39" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H38" s="50" t="s">
         <v>40</v>
@@ -23631,7 +23451,7 @@
         <v>40</v>
       </c>
       <c r="K38" s="82" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:11">
@@ -23642,28 +23462,28 @@
         <v>11</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="E39" s="50" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F39" s="53" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G39" s="71" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H39" s="50" t="s">
         <v>40</v>
       </c>
       <c r="I39" s="44" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="K39" s="82" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" ht="29" customHeight="1" spans="1:14">
@@ -23674,28 +23494,28 @@
         <v>11</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="E40" s="50" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="F40" s="53" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G40" s="39" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H40" s="50" t="s">
         <v>40</v>
       </c>
       <c r="I40" s="100" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="K40" s="95" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="L40" s="95"/>
       <c r="M40" s="95"/>
@@ -23709,28 +23529,28 @@
         <v>11</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F41" s="53" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G41" s="71" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H41" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I41" s="100" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="K41" s="82" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" ht="81" spans="1:11">
@@ -23741,19 +23561,19 @@
         <v>11</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="E42" s="43" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F42" s="53" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G42" s="71" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H42" s="39" t="s">
         <v>40</v>
@@ -23762,7 +23582,7 @@
         <v>40</v>
       </c>
       <c r="K42" s="82" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" ht="81" spans="1:11">
@@ -23773,28 +23593,28 @@
         <v>11</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="E43" s="43" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F43" s="53" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G43" s="39" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H43" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I43" s="100" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="K43" s="82" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" s="2" customFormat="1" ht="40.5" spans="1:15">
@@ -23805,19 +23625,19 @@
         <v>11</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E44" s="43" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F44" s="53" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G44" s="39" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H44" s="39" t="s">
         <v>40</v>
@@ -23826,7 +23646,7 @@
         <v>40</v>
       </c>
       <c r="K44" s="101" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="L44" s="95"/>
       <c r="M44" s="95"/>
@@ -23841,28 +23661,28 @@
         <v>11</v>
       </c>
       <c r="C45" s="51" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="D45" s="52" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F45" s="73" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G45" s="74" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H45" s="75" t="s">
         <v>40</v>
       </c>
       <c r="I45" s="48" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="K45" s="93" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="L45" s="94"/>
       <c r="M45" s="94"/>
@@ -23876,19 +23696,19 @@
         <v>11</v>
       </c>
       <c r="C46" s="36" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="E46" s="43" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F46" s="50" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G46" s="71" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H46" s="71" t="s">
         <v>40</v>
@@ -23898,7 +23718,7 @@
       </c>
       <c r="J46" s="102"/>
       <c r="K46" s="97" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47" s="10" customFormat="1" ht="40.5" spans="1:11">
@@ -23909,19 +23729,19 @@
         <v>11</v>
       </c>
       <c r="C47" s="76" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="E47" s="43" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F47" s="50" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G47" s="71" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H47" s="53" t="s">
         <v>40</v>
@@ -23931,7 +23751,7 @@
       </c>
       <c r="J47" s="102"/>
       <c r="K47" s="97" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" s="10" customFormat="1" ht="256.5" spans="1:11">
@@ -23942,19 +23762,19 @@
         <v>11</v>
       </c>
       <c r="C48" s="36" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D48" s="77" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="E48" s="43" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F48" s="50" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G48" s="71" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H48" s="53" t="s">
         <v>40</v>
@@ -23964,7 +23784,7 @@
       </c>
       <c r="J48" s="102"/>
       <c r="K48" s="97" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" s="10" customFormat="1" ht="40.5" spans="1:11">
@@ -23975,19 +23795,19 @@
         <v>11</v>
       </c>
       <c r="C49" s="36" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E49" s="43" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F49" s="50" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G49" s="71" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H49" s="53" t="s">
         <v>40</v>
@@ -23997,7 +23817,7 @@
       </c>
       <c r="J49" s="102"/>
       <c r="K49" s="97" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50" s="2" customFormat="1" ht="270" spans="1:11">
@@ -24008,16 +23828,16 @@
         <v>11</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E50" s="78" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F50" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G50" s="39" t="s">
         <v>35</v>
@@ -24026,11 +23846,11 @@
         <v>40</v>
       </c>
       <c r="I50" s="48" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="J50" s="48"/>
       <c r="K50" s="82" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51" s="38" customFormat="1" ht="18" spans="1:12">
@@ -24053,29 +23873,29 @@
         <v>11</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E52" s="78" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F52" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G52" s="39" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="H52" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I52" s="44" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="J52" s="44"/>
       <c r="K52" s="103" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="L52" s="103"/>
       <c r="M52" s="103"/>
@@ -24089,29 +23909,29 @@
         <v>11</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="E53" s="78" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F53" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G53" s="39" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="H53" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I53" s="65" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="J53" s="44"/>
       <c r="K53" s="99" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="54" s="2" customFormat="1" ht="34" customHeight="1" spans="1:11">
@@ -24122,29 +23942,29 @@
         <v>11</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="E54" s="78" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F54" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G54" s="39" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="H54" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I54" s="65" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="J54" s="44"/>
       <c r="K54" s="2" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="55" s="2" customFormat="1" ht="28.5" spans="1:14">
@@ -24155,29 +23975,29 @@
         <v>11</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="E55" s="78" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F55" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G55" s="39" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H55" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I55" s="65" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="J55" s="44"/>
       <c r="K55" s="103" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="L55" s="103"/>
       <c r="M55" s="103"/>
@@ -24191,19 +24011,19 @@
         <v>11</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="E56" s="78" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F56" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G56" s="39" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H56" s="39" t="s">
         <v>40</v>
@@ -24213,7 +24033,7 @@
       </c>
       <c r="J56" s="44"/>
       <c r="K56" s="82" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="57" s="2" customFormat="1" ht="81" spans="1:14">
@@ -24224,31 +24044,31 @@
         <v>11</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="E57" s="78" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F57" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G57" s="39" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="H57" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I57" s="65" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="J57" s="44" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="K57" s="104" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="L57" s="104"/>
       <c r="M57" s="104"/>
@@ -24262,19 +24082,19 @@
         <v>11</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="E58" s="78" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F58" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G58" s="39" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H58" s="39" t="s">
         <v>40</v>
@@ -24284,7 +24104,7 @@
       </c>
       <c r="J58" s="44"/>
       <c r="K58" s="82" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="59" s="2" customFormat="1" ht="40.5" spans="1:11">
@@ -24295,19 +24115,19 @@
         <v>11</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="E59" s="78" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F59" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G59" s="39" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H59" s="79" t="s">
         <v>40</v>
@@ -24316,10 +24136,10 @@
         <v>40</v>
       </c>
       <c r="J59" s="105" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K59" s="82" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="60" s="2" customFormat="1" ht="94.5" spans="1:11">
@@ -24330,31 +24150,31 @@
         <v>11</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="E60" s="78" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F60" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G60" s="39" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H60" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I60" s="65" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="J60" s="100" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="K60" s="82" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="61" s="2" customFormat="1" ht="135" spans="1:11">
@@ -24365,31 +24185,31 @@
         <v>11</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="E61" s="78" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F61" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G61" s="39" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H61" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I61" s="65" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="J61" s="106" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="K61" s="82" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="62" s="2" customFormat="1" spans="1:11">
@@ -24400,19 +24220,19 @@
         <v>11</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="E62" s="78" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F62" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G62" s="39" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H62" s="39" t="s">
         <v>40</v>
@@ -24422,7 +24242,7 @@
       </c>
       <c r="J62" s="44"/>
       <c r="K62" s="82" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="63" s="2" customFormat="1" ht="27" spans="1:11">
@@ -24433,31 +24253,31 @@
         <v>11</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="E63" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F63" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G63" s="80" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="H63" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I63" s="44" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="J63" s="107" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="K63" s="82" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="64" s="38" customFormat="1" ht="18" spans="1:12">
@@ -24480,16 +24300,16 @@
         <v>11</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="E65" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F65" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G65" s="39" t="s">
         <v>35</v>
@@ -24498,11 +24318,11 @@
         <v>40</v>
       </c>
       <c r="I65" s="44" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="J65" s="44"/>
       <c r="K65" s="93" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="L65" s="83"/>
       <c r="M65" s="83"/>
@@ -24528,19 +24348,19 @@
         <v>11</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="E67" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F67" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G67" s="39" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H67" s="39" t="s">
         <v>40</v>
@@ -24550,7 +24370,7 @@
       </c>
       <c r="J67" s="44"/>
       <c r="K67" s="82" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="68" s="2" customFormat="1" ht="81" spans="1:11">
@@ -24561,19 +24381,19 @@
         <v>11</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="E68" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F68" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G68" s="39" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H68" s="39" t="s">
         <v>40</v>
@@ -24583,7 +24403,7 @@
       </c>
       <c r="J68" s="44"/>
       <c r="K68" s="82" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
     </row>
     <row r="69" s="2" customFormat="1" ht="67.5" spans="1:11">
@@ -24594,31 +24414,31 @@
         <v>11</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="E69" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F69" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G69" s="39" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H69" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I69" s="44" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="J69" s="100" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="K69" s="82" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
     <row r="70" s="2" customFormat="1" spans="1:11">
@@ -24629,29 +24449,29 @@
         <v>11</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="E70" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F70" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G70" s="39" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H70" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I70" s="100" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="J70" s="44"/>
       <c r="K70" s="82" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="71" s="2" customFormat="1" ht="22.5" spans="1:15">
@@ -24662,29 +24482,29 @@
         <v>11</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="E71" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F71" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G71" s="39" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H71" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I71" s="100" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="J71" s="44"/>
       <c r="K71" s="95" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="L71" s="95"/>
       <c r="M71" s="95"/>
@@ -24696,32 +24516,32 @@
         <v>32</v>
       </c>
       <c r="B72" s="50" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="E72" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F72" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G72" s="39" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="H72" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I72" s="44" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="J72" s="44"/>
       <c r="K72" s="82" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="73" s="2" customFormat="1" spans="1:11">
@@ -24729,22 +24549,22 @@
         <v>32</v>
       </c>
       <c r="B73" s="50" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="E73" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F73" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G73" s="39" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="H73" s="39" t="s">
         <v>40</v>
@@ -24754,7 +24574,7 @@
       </c>
       <c r="J73" s="44"/>
       <c r="K73" s="82" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
     </row>
     <row r="74" s="2" customFormat="1" spans="1:11">
@@ -24762,19 +24582,19 @@
         <v>32</v>
       </c>
       <c r="B74" s="50" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="E74" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F74" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G74" s="39" t="s">
         <v>35</v>
@@ -24783,11 +24603,11 @@
         <v>40</v>
       </c>
       <c r="I74" s="44" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="J74" s="44"/>
       <c r="K74" s="82" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
     </row>
     <row r="75" s="2" customFormat="1" spans="1:11">
@@ -24795,19 +24615,19 @@
         <v>32</v>
       </c>
       <c r="B75" s="50" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="E75" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F75" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G75" s="39" t="s">
         <v>35</v>
@@ -24816,11 +24636,11 @@
         <v>40</v>
       </c>
       <c r="I75" s="44" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="J75" s="44"/>
       <c r="K75" s="82" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
     </row>
     <row r="76" s="10" customFormat="1" ht="108" spans="1:15">
@@ -24828,34 +24648,34 @@
         <v>32</v>
       </c>
       <c r="B76" s="50" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D76" s="108" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="E76" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F76" s="50" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G76" s="71" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H76" s="71" t="s">
         <v>40</v>
       </c>
       <c r="I76" s="96" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="J76" s="115" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="K76" s="116" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="L76" s="116"/>
       <c r="M76" s="116"/>
@@ -24867,32 +24687,32 @@
         <v>32</v>
       </c>
       <c r="B77" s="50" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E77" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F77" s="50" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G77" s="71" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H77" s="71" t="s">
         <v>40</v>
       </c>
       <c r="I77" s="96" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="J77" s="115"/>
       <c r="K77" s="97" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="78" s="2" customFormat="1" spans="1:11">
@@ -24900,34 +24720,34 @@
         <v>32</v>
       </c>
       <c r="B78" s="59" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="E78" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F78" s="50" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G78" s="59" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="H78" s="71" t="s">
         <v>40</v>
       </c>
       <c r="I78" s="96" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="J78" s="117" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="K78" s="82" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
     </row>
     <row r="79" s="2" customFormat="1" spans="1:14">
@@ -24935,28 +24755,28 @@
         <v>32</v>
       </c>
       <c r="B79" s="59" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="E79" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F79" s="50" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G79" s="59" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="H79" s="71" t="s">
         <v>40</v>
       </c>
       <c r="I79" s="96" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="J79" s="117"/>
       <c r="K79" s="118"/>
@@ -24972,16 +24792,16 @@
         <v>11</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="E80" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F80" s="50" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G80" s="71" t="s">
         <v>35</v>
@@ -24992,7 +24812,7 @@
       <c r="I80" s="71"/>
       <c r="J80" s="96"/>
       <c r="K80" s="92" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
     </row>
     <row r="81" s="2" customFormat="1" ht="162" spans="1:11">
@@ -25003,16 +24823,16 @@
         <v>11</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="E81" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F81" s="50" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G81" s="39" t="s">
         <v>35</v>
@@ -25023,7 +24843,7 @@
       <c r="I81" s="71"/>
       <c r="J81" s="44"/>
       <c r="K81" s="82" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
     </row>
     <row r="82" s="2" customFormat="1" ht="18" spans="1:14">
@@ -25052,19 +24872,19 @@
         <v>11</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="E83" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F83" s="50" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G83" s="71" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H83" s="105" t="s">
         <v>40</v>
@@ -25073,10 +24893,10 @@
         <v>40</v>
       </c>
       <c r="J83" s="119" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="K83" s="99" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
     </row>
     <row r="84" s="2" customFormat="1" ht="67.5" spans="1:11">
@@ -25087,19 +24907,19 @@
         <v>11</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="E84" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F84" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G84" s="39" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H84" s="39" t="s">
         <v>40</v>
@@ -25109,7 +24929,7 @@
       </c>
       <c r="J84" s="44"/>
       <c r="K84" s="82" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="85" s="2" customFormat="1" spans="1:11">
@@ -25120,31 +24940,31 @@
         <v>11</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E85" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F85" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G85" s="39" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H85" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I85" s="44" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="J85" s="120" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="K85" s="82" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="86" s="2" customFormat="1" spans="1:11">
@@ -25155,19 +24975,19 @@
         <v>11</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="E86" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F86" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G86" s="39" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H86" s="39" t="s">
         <v>40</v>
@@ -25177,7 +24997,7 @@
       </c>
       <c r="J86" s="44"/>
       <c r="K86" s="82" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
     </row>
     <row r="87" s="2" customFormat="1" ht="27" spans="1:11">
@@ -25188,16 +25008,16 @@
         <v>11</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="E87" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F87" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G87" s="39" t="s">
         <v>35</v>
@@ -25209,10 +25029,10 @@
         <v>40</v>
       </c>
       <c r="J87" s="105" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="K87" s="82" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
     </row>
     <row r="88" s="2" customFormat="1" ht="67.5" spans="1:11">
@@ -25223,16 +25043,16 @@
         <v>11</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="E88" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F88" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G88" s="39" t="s">
         <v>35</v>
@@ -25245,7 +25065,7 @@
       </c>
       <c r="J88" s="44"/>
       <c r="K88" s="82" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
     </row>
     <row r="89" s="2" customFormat="1" ht="54" spans="1:15">
@@ -25256,31 +25076,31 @@
         <v>11</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="E89" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F89" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G89" s="39" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="H89" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I89" s="44" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="J89" s="105" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="K89" s="95" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="L89" s="121"/>
       <c r="M89" s="121"/>
@@ -25295,28 +25115,28 @@
         <v>11</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="E90" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F90" s="50" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G90" s="71" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="H90" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I90" s="44" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="J90" s="105" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="K90" s="73"/>
       <c r="L90" s="73"/>
@@ -25331,31 +25151,31 @@
         <v>11</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="E91" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F91" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G91" s="39" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H91" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I91" s="44" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="J91" s="122" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="K91" s="82" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="92" s="2" customFormat="1" ht="121.5" spans="1:15">
@@ -25366,31 +25186,31 @@
         <v>11</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="E92" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F92" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G92" s="39" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H92" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I92" s="44" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="J92" s="122" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="K92" s="123" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="L92" s="123"/>
       <c r="M92" s="123"/>
@@ -25405,29 +25225,29 @@
         <v>11</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="E93" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F93" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G93" s="39" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="H93" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I93" s="44" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="J93" s="44"/>
       <c r="K93" s="82" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="94" s="2" customFormat="1" spans="1:15">
@@ -25438,29 +25258,29 @@
         <v>11</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="E94" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F94" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G94" s="39" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="H94" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I94" s="44" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="J94" s="44"/>
       <c r="K94" s="95" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="L94" s="95"/>
       <c r="M94" s="95"/>
@@ -25475,31 +25295,31 @@
         <v>11</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="E95" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F95" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G95" s="39" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="H95" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I95" s="44" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="J95" s="105" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="K95" s="82" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="96" s="2" customFormat="1" ht="18" spans="1:14">
@@ -25528,19 +25348,19 @@
         <v>11</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="D97" s="77" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="E97" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F97" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G97" s="39" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H97" s="39" t="s">
         <v>40</v>
@@ -25549,10 +25369,10 @@
         <v>40</v>
       </c>
       <c r="J97" s="120" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="K97" s="82" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="98" s="2" customFormat="1" ht="51.75" spans="1:11">
@@ -25563,19 +25383,19 @@
         <v>11</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="D98" s="34" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="E98" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F98" s="50" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G98" s="39" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H98" s="39" t="s">
         <v>40</v>
@@ -25585,7 +25405,7 @@
       </c>
       <c r="J98" s="44"/>
       <c r="K98" s="82" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
     </row>
     <row r="99" s="2" customFormat="1" spans="1:10">
@@ -25596,19 +25416,19 @@
         <v>11</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="E99" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F99" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G99" s="39" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H99" s="39" t="s">
         <v>40</v>
@@ -25617,7 +25437,7 @@
         <v>40</v>
       </c>
       <c r="J99" s="44" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="100" s="2" customFormat="1" spans="1:11">
@@ -25628,16 +25448,16 @@
         <v>11</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E100" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F100" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G100" s="39" t="s">
         <v>35</v>
@@ -25646,11 +25466,11 @@
         <v>40</v>
       </c>
       <c r="I100" s="44" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="J100" s="44"/>
       <c r="K100" s="82" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
     </row>
     <row r="101" s="2" customFormat="1" ht="135" spans="1:11">
@@ -25661,16 +25481,16 @@
         <v>11</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="E101" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F101" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G101" s="39" t="s">
         <v>35</v>
@@ -25683,7 +25503,7 @@
       </c>
       <c r="J101" s="44"/>
       <c r="K101" s="82" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
     </row>
     <row r="102" s="2" customFormat="1" ht="27" spans="1:11">
@@ -25694,16 +25514,16 @@
         <v>11</v>
       </c>
       <c r="C102" s="35" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="E102" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F102" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G102" s="39" t="s">
         <v>35</v>
@@ -25712,11 +25532,11 @@
         <v>40</v>
       </c>
       <c r="I102" s="44" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="J102" s="44"/>
       <c r="K102" s="82" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
     </row>
     <row r="103" s="2" customFormat="1" ht="54" spans="1:11">
@@ -25727,31 +25547,31 @@
         <v>11</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="E103" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F103" s="50" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G103" s="71" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H103" s="71" t="s">
         <v>40</v>
       </c>
       <c r="I103" s="96" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="J103" s="119" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="K103" s="82" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
     </row>
     <row r="104" s="2" customFormat="1" ht="18" spans="1:14">
@@ -25780,16 +25600,16 @@
         <v>11</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="D105" s="35" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="E105" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F105" s="50" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G105" s="71" t="s">
         <v>35</v>
@@ -25798,11 +25618,11 @@
         <v>40</v>
       </c>
       <c r="I105" s="96" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="J105" s="119"/>
       <c r="K105" s="82" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="N105" s="44"/>
     </row>
@@ -25814,16 +25634,16 @@
         <v>11</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="D106" s="35" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="E106" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F106" s="50" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G106" s="71" t="s">
         <v>35</v>
@@ -25832,11 +25652,11 @@
         <v>40</v>
       </c>
       <c r="I106" s="96" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="J106" s="119"/>
       <c r="K106" s="82" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="N106" s="44"/>
     </row>
@@ -25848,29 +25668,29 @@
         <v>11</v>
       </c>
       <c r="C107" s="36" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="D107" s="37" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="E107" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F107" s="50" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G107" s="71" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H107" s="71" t="s">
         <v>40</v>
       </c>
       <c r="I107" s="96" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="J107" s="44"/>
       <c r="K107" s="82" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="N107" s="44"/>
     </row>
@@ -25882,29 +25702,29 @@
         <v>11</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="E108" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F108" s="50" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G108" s="71" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H108" s="71" t="s">
         <v>40</v>
       </c>
       <c r="I108" s="96" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="J108" s="44"/>
       <c r="K108" s="82" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="N108" s="44"/>
     </row>
@@ -25934,16 +25754,16 @@
         <v>11</v>
       </c>
       <c r="C110" s="109" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="D110" s="110" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="E110" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F110" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G110" s="39" t="s">
         <v>35</v>
@@ -25954,7 +25774,7 @@
       <c r="I110" s="44"/>
       <c r="J110" s="44"/>
       <c r="K110" s="95" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="L110" s="94"/>
       <c r="M110" s="94"/>
@@ -25968,19 +25788,19 @@
         <v>11</v>
       </c>
       <c r="C111" s="70" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="D111" s="70" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="E111" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F111" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G111" s="53" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H111" s="39" t="s">
         <v>40</v>
@@ -25988,7 +25808,7 @@
       <c r="I111" s="44"/>
       <c r="J111" s="44"/>
       <c r="K111" s="95" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="L111" s="95"/>
       <c r="M111" s="95"/>
@@ -25999,22 +25819,22 @@
         <v>32</v>
       </c>
       <c r="B112" s="50" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>119</v>
+        <v>423</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>120</v>
+        <v>424</v>
       </c>
       <c r="E112" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F112" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G112" s="71" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H112" s="39" t="s">
         <v>40</v>
@@ -26022,7 +25842,7 @@
       <c r="I112" s="44"/>
       <c r="J112" s="44"/>
       <c r="K112" s="82" t="s">
-        <v>121</v>
+        <v>425</v>
       </c>
     </row>
     <row r="113" s="2" customFormat="1" spans="1:11">
@@ -26030,22 +25850,22 @@
         <v>32</v>
       </c>
       <c r="B113" s="50" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>122</v>
+        <v>426</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>123</v>
+        <v>427</v>
       </c>
       <c r="E113" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F113" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G113" s="71" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H113" s="39" t="s">
         <v>40</v>
@@ -26053,7 +25873,7 @@
       <c r="I113" s="44"/>
       <c r="J113" s="44"/>
       <c r="K113" s="82" t="s">
-        <v>124</v>
+        <v>428</v>
       </c>
     </row>
     <row r="114" s="2" customFormat="1" ht="18" spans="1:14">
@@ -26082,16 +25902,16 @@
         <v>11</v>
       </c>
       <c r="C115" s="70" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="E115" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F115" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G115" s="39" t="s">
         <v>35</v>
@@ -26102,7 +25922,7 @@
       <c r="I115" s="44"/>
       <c r="J115" s="44"/>
       <c r="K115" s="82" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="116" s="2" customFormat="1" ht="18" spans="1:14">
@@ -26131,16 +25951,16 @@
         <v>11</v>
       </c>
       <c r="C117" s="70" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="E117" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F117" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G117" s="39" t="s">
         <v>35</v>
@@ -26150,10 +25970,10 @@
       </c>
       <c r="I117" s="44"/>
       <c r="J117" s="107" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="K117" s="93" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="L117" s="93"/>
       <c r="M117" s="93"/>
@@ -26185,16 +26005,16 @@
         <v>11</v>
       </c>
       <c r="C119" s="36" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D119" s="112" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="E119" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F119" s="50" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G119" s="71" t="s">
         <v>35</v>
@@ -26207,7 +26027,7 @@
       </c>
       <c r="J119" s="96"/>
       <c r="K119" s="124" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L119" s="125"/>
       <c r="M119" s="125"/>
@@ -26221,16 +26041,16 @@
         <v>11</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D120" s="112" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="E120" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F120" s="50" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G120" s="71" t="s">
         <v>35</v>
@@ -26243,7 +26063,7 @@
       </c>
       <c r="J120" s="96"/>
       <c r="K120" s="124" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="L120" s="125"/>
       <c r="M120" s="125"/>
@@ -26257,16 +26077,16 @@
         <v>11</v>
       </c>
       <c r="C121" s="35" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D121" s="113" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="E121" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F121" s="114" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G121" s="71" t="s">
         <v>35</v>
@@ -26275,11 +26095,11 @@
         <v>40</v>
       </c>
       <c r="I121" s="96" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="J121" s="96"/>
       <c r="K121" s="124" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="L121" s="125"/>
       <c r="M121" s="125"/>
@@ -26293,16 +26113,16 @@
         <v>11</v>
       </c>
       <c r="C122" s="35" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D122" s="113" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="E122" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F122" s="114" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G122" s="71" t="s">
         <v>35</v>
@@ -26311,11 +26131,11 @@
         <v>40</v>
       </c>
       <c r="I122" s="96" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="J122" s="96"/>
       <c r="K122" s="124" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="L122" s="125"/>
       <c r="M122" s="125"/>
@@ -26329,16 +26149,16 @@
         <v>11</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D123" s="76" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E123" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F123" s="114" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G123" s="71" t="s">
         <v>35</v>
@@ -26351,7 +26171,7 @@
       </c>
       <c r="J123" s="96"/>
       <c r="K123" s="124" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="L123" s="125"/>
       <c r="M123" s="125"/>
@@ -26365,16 +26185,16 @@
         <v>11</v>
       </c>
       <c r="C124" s="70" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="E124" s="73" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F124" s="43" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G124" s="39" t="s">
         <v>35</v>
@@ -26384,10 +26204,10 @@
       </c>
       <c r="I124" s="44"/>
       <c r="J124" s="126" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="K124" s="124" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L124" s="125"/>
       <c r="M124" s="125"/>
@@ -26574,63 +26394,63 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="27" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="18" spans="1:9">
@@ -26648,111 +26468,111 @@
     </row>
     <row r="12" s="2" customFormat="1" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="10" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="10" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="10" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="10" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="18" spans="1:9">
@@ -26770,257 +26590,257 @@
     </row>
     <row r="28" s="2" customFormat="1" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" spans="1:2">
       <c r="A34" s="10" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" spans="1:2">
       <c r="A35" s="10" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" spans="1:2">
       <c r="A36" s="10" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" spans="1:2">
       <c r="A37" s="10" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" spans="1:2">
       <c r="A38" s="10" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:2">
       <c r="A39" s="10" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" ht="27" spans="1:2">
       <c r="A40" s="10" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" spans="1:2">
       <c r="A41" s="10" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" spans="1:2">
       <c r="A42" s="10" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="44" s="2" customFormat="1" spans="1:1">
       <c r="A44" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="1" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" spans="1:2">
       <c r="A46" s="10" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" spans="1:2">
       <c r="A47" s="2" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="48" s="2" customFormat="1" spans="1:2">
       <c r="A48" s="10" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="49" s="2" customFormat="1" ht="67.5" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="53" ht="27" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="2" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="61" ht="162" spans="1:2">
       <c r="A61" s="2" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="2" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="64" ht="216" spans="1:2">
       <c r="A64" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" ht="18" spans="1:9">
@@ -27038,18 +26858,18 @@
     </row>
     <row r="66" s="2" customFormat="1" spans="1:2">
       <c r="A66" s="2" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="67" ht="40.5" spans="1:2">
       <c r="A67" s="2" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" ht="18" spans="1:9">
@@ -27067,58 +26887,58 @@
     </row>
     <row r="69" s="2" customFormat="1" spans="1:2">
       <c r="A69" s="2" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="76" spans="2:2">
@@ -27126,58 +26946,58 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="78" ht="27" spans="1:2">
       <c r="A78" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:2">
       <c r="A79" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="80" ht="14.25" spans="1:2">
       <c r="A80" s="15" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="81" ht="14.25" spans="1:2">
       <c r="A81" s="2" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="82" ht="27" spans="1:2">
       <c r="A82" s="2" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="84" s="3" customFormat="1" ht="18" spans="1:12">
@@ -27194,18 +27014,18 @@
     </row>
     <row r="85" s="2" customFormat="1" spans="1:2">
       <c r="A85" s="2" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="86" s="2" customFormat="1" spans="1:2">
       <c r="A86" s="2" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="87" s="3" customFormat="1" ht="18" spans="1:12">
@@ -27222,58 +27042,58 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
     <row r="94" ht="16.5" spans="1:2">
       <c r="A94" s="2" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="95" s="2" customFormat="1" ht="16.5" spans="1:2">
@@ -27282,66 +27102,66 @@
     </row>
     <row r="96" s="2" customFormat="1" spans="1:2">
       <c r="A96" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="97" s="2" customFormat="1" spans="1:2">
       <c r="A97" s="2" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="98" s="2" customFormat="1" spans="1:2">
       <c r="A98" s="2" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="99" s="2" customFormat="1" spans="1:2">
       <c r="A99" s="2" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="B99" s="24" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
     </row>
     <row r="100" s="2" customFormat="1" spans="1:2">
       <c r="A100" s="2" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B100" s="21" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="101" s="2" customFormat="1" spans="1:2">
       <c r="A101" s="2" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
     </row>
     <row r="102" s="2" customFormat="1" spans="1:2">
       <c r="A102" s="10" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
     <row r="103" s="2" customFormat="1" ht="16.5" spans="1:2">
       <c r="A103" s="22" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="104" s="2" customFormat="1" ht="16.5" spans="1:1">
@@ -27349,28 +27169,28 @@
     </row>
     <row r="105" s="2" customFormat="1" spans="1:1">
       <c r="A105" s="2" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="106" s="2" customFormat="1" ht="40.5" spans="1:2">
       <c r="A106" s="10" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
     </row>
     <row r="108" s="2" customFormat="1" spans="1:1">
       <c r="A108" s="2" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="109" ht="81" spans="1:2">
       <c r="A109" s="15" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
     <row r="110" s="3" customFormat="1" ht="18" spans="1:12">
@@ -27387,122 +27207,122 @@
     </row>
     <row r="111" s="2" customFormat="1" spans="1:2">
       <c r="A111" s="2" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="112" s="2" customFormat="1" spans="1:2">
       <c r="A112" s="10" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="B112" s="26" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="113" s="2" customFormat="1" spans="1:2">
       <c r="A113" s="2" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="114" s="2" customFormat="1" spans="1:2">
       <c r="A114" s="2" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="115" s="2" customFormat="1" spans="1:2">
       <c r="A115" s="2" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="116" s="2" customFormat="1" spans="1:2">
       <c r="A116" s="2" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="117" s="2" customFormat="1" spans="1:2">
       <c r="A117" s="2" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="118" s="2" customFormat="1" spans="1:2">
       <c r="A118" s="27" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
     </row>
     <row r="119" s="2" customFormat="1" spans="1:2">
       <c r="A119" s="2" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="120" s="2" customFormat="1" spans="1:2">
       <c r="A120" s="2" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="121" s="2" customFormat="1" spans="1:2">
       <c r="A121" s="2" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
     </row>
     <row r="123" s="2" customFormat="1" spans="1:2">
       <c r="A123" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="124" s="2" customFormat="1" spans="1:2">
       <c r="A124" s="2" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="125" s="2" customFormat="1" spans="1:2">
       <c r="A125" s="2" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="126" s="2" customFormat="1" spans="1:2">
       <c r="A126" s="2" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="127" s="2" customFormat="1" ht="18" spans="1:14">
@@ -27525,50 +27345,50 @@
     </row>
     <row r="128" s="2" customFormat="1" spans="1:2">
       <c r="A128" s="2" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="32" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B129" s="32" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="32" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B130" s="32" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="32" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="B131" s="32" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="32" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B132" s="32" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="32" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B133" s="32" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="134" s="2" customFormat="1" spans="1:2">
@@ -27577,26 +27397,26 @@
     </row>
     <row r="135" s="2" customFormat="1" spans="1:2">
       <c r="A135" s="32" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B135" s="32" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="32" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="B136" s="32" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="32" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="B137" s="32" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="138" s="2" customFormat="1" ht="18" spans="1:14">
@@ -27619,18 +27439,18 @@
     </row>
     <row r="139" s="2" customFormat="1" spans="1:2">
       <c r="A139" s="2" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="140" s="2" customFormat="1" spans="1:2">
       <c r="A140" s="32" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B140" s="32" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="141" s="2" customFormat="1" spans="1:2">
@@ -27639,15 +27459,15 @@
     </row>
     <row r="142" s="2" customFormat="1" spans="1:1">
       <c r="A142" s="2" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="143" s="2" customFormat="1" spans="1:2">
       <c r="A143" s="10" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B143" s="33" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="144" s="2" customFormat="1" spans="2:2">
@@ -27655,15 +27475,15 @@
     </row>
     <row r="145" s="2" customFormat="1" spans="1:1">
       <c r="A145" s="2" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="146" s="2" customFormat="1" ht="34.5" spans="1:2">
       <c r="A146" s="15" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="B146" s="34" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="147" s="2" customFormat="1" ht="18" spans="1:14">
@@ -27686,50 +27506,50 @@
     </row>
     <row r="148" s="2" customFormat="1" spans="1:2">
       <c r="A148" s="2" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="B149" s="35" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
     </row>
     <row r="151" s="2" customFormat="1" spans="1:2">
       <c r="A151" s="32" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B151" s="32" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="10" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="B152" s="35" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="36" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="B153" s="37" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
     </row>
     <row r="155" s="2" customFormat="1" ht="18" spans="1:14">
@@ -27752,50 +27572,50 @@
     </row>
     <row r="156" s="2" customFormat="1" spans="1:2">
       <c r="A156" s="2" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>112</v>
+        <v>627</v>
       </c>
     </row>
     <row r="160" s="2" customFormat="1" spans="1:2">
       <c r="A160" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>112</v>
+        <v>627</v>
       </c>
     </row>
     <row r="163" s="2" customFormat="1" ht="18" spans="1:14">
@@ -27818,18 +27638,18 @@
     </row>
     <row r="164" s="2" customFormat="1" spans="1:2">
       <c r="A164" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="166" s="2" customFormat="1" ht="18" spans="1:14">
@@ -27852,15 +27672,15 @@
     </row>
     <row r="167" s="2" customFormat="1" spans="1:1">
       <c r="A167" s="2" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="168" s="2" customFormat="1" spans="1:2">
       <c r="A168" s="10" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="169" s="2" customFormat="1" ht="18" spans="1:14">
@@ -27883,26 +27703,26 @@
     </row>
     <row r="170" s="2" customFormat="1" spans="1:2">
       <c r="A170" s="2" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="10" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="10" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="173" s="2" customFormat="1" spans="1:2">
@@ -27911,34 +27731,34 @@
     </row>
     <row r="174" s="2" customFormat="1" spans="1:2">
       <c r="A174" s="10" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="10" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="10" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="10" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -27947,16 +27767,16 @@
     </row>
     <row r="179" s="2" customFormat="1" spans="1:2">
       <c r="A179" s="10" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B179" s="10"/>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="10" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/引擎插件3.0.xlsx
+++ b/引擎插件3.0.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634">
   <si>
     <t>分类</t>
   </si>
@@ -637,13 +637,6 @@
     <t>UI改善</t>
   </si>
   <si>
-    <t>uexEasemob （android）叶飞</t>
-  </si>
-  <si>
-    <t>1. 优化创建群组时，Android支持initialWelcomeMessage参数
-2. 优化修复获取群组信息时数据返回异常的问题</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -3320,9 +3313,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="55">
     <font>
@@ -3512,34 +3505,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3557,9 +3527,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3575,6 +3589,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3582,46 +3611,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3729,7 +3722,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3741,13 +3746,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3759,13 +3806,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3777,37 +3848,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3819,73 +3860,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3897,7 +3878,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3910,6 +3891,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3938,6 +3931,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -3962,21 +4003,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3984,39 +4010,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4028,10 +4021,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4040,10 +4033,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4052,7 +4045,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4067,121 +4060,121 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4964,10 +4957,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5400,17 +5393,17 @@
       <c r="H22" s="96"/>
       <c r="I22" s="127"/>
     </row>
-    <row r="23" ht="27" spans="1:9">
+    <row r="23" spans="1:9">
       <c r="A23" s="49" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="140" t="s">
         <v>66</v>
       </c>
       <c r="I23" s="39"/>
@@ -5425,7 +5418,7 @@
       <c r="C24" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="140" t="s">
+      <c r="D24" s="35" t="s">
         <v>68</v>
       </c>
       <c r="I24" s="39"/>
@@ -5440,12 +5433,12 @@
       <c r="C25" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="110" t="s">
         <v>70</v>
       </c>
       <c r="I25" s="39"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" s="2" customFormat="1" ht="26.25" spans="1:9">
       <c r="A26" s="49" t="s">
         <v>10</v>
       </c>
@@ -5455,89 +5448,74 @@
       <c r="C26" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="110" t="s">
+      <c r="D26" s="141" t="s">
         <v>72</v>
       </c>
+      <c r="E26" s="43"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="44"/>
       <c r="I26" s="39"/>
     </row>
-    <row r="27" s="2" customFormat="1" ht="26.25" spans="1:9">
+    <row r="27" ht="34.5" spans="1:9">
       <c r="A27" s="49" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="141" t="s">
+      <c r="D27" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="44"/>
       <c r="I27" s="39"/>
     </row>
-    <row r="28" ht="34.5" spans="1:9">
+    <row r="28" spans="1:9">
       <c r="A28" s="49" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="70" t="s">
+      <c r="C28" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="110" t="s">
         <v>76</v>
       </c>
       <c r="I28" s="39"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" ht="27" spans="1:9">
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="110" t="s">
+      <c r="D29" s="8" t="s">
         <v>78</v>
       </c>
       <c r="I29" s="39"/>
     </row>
-    <row r="30" ht="27" spans="1:9">
+    <row r="30" ht="121.5" spans="1:9">
       <c r="A30" s="49" t="s">
         <v>10</v>
       </c>
       <c r="B30" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="139" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="142" t="s">
         <v>80</v>
       </c>
       <c r="I30" s="39"/>
-    </row>
-    <row r="31" ht="121.5" spans="1:9">
-      <c r="A31" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="139" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="142" t="s">
-        <v>82</v>
-      </c>
-      <c r="I31" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -5606,25 +5584,25 @@
         <v>10</v>
       </c>
       <c r="B2" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="F2" s="59" t="s">
         <v>84</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="129" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="59" t="s">
-        <v>86</v>
       </c>
       <c r="G2" s="50"/>
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="135" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:10">
@@ -5632,25 +5610,25 @@
         <v>10</v>
       </c>
       <c r="B3" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="129" t="s">
-        <v>85</v>
-      </c>
       <c r="F3" s="59" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G3" s="50"/>
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="135" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" s="10" customFormat="1" spans="1:9">
@@ -5661,19 +5639,19 @@
         <v>11</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E4" s="50"/>
       <c r="F4" s="71" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G4" s="71"/>
       <c r="H4" s="96"/>
       <c r="I4" s="102" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" s="32" customFormat="1" ht="27" spans="1:10">
@@ -5684,26 +5662,26 @@
         <v>11</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E5" s="50"/>
       <c r="F5" s="53" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G5" s="53" t="s">
         <v>40</v>
       </c>
       <c r="H5" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" s="136" t="s">
         <v>95</v>
-      </c>
-      <c r="I5" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="J5" s="136" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:9">
@@ -5714,14 +5692,14 @@
         <v>11</v>
       </c>
       <c r="C6" s="132" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D6" s="133" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E6" s="131"/>
       <c r="F6" s="134" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G6" s="39"/>
       <c r="H6" s="44"/>
@@ -5732,20 +5710,17 @@
         <v>10</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="43"/>
+      <c r="I7" s="43" t="s">
         <v>101</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7" s="43"/>
-      <c r="H7"/>
-      <c r="I7" s="43" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:9">
@@ -5753,20 +5728,17 @@
         <v>10</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8"/>
-      <c r="F8"/>
+        <v>103</v>
+      </c>
       <c r="G8" s="43"/>
-      <c r="H8"/>
       <c r="I8" s="43" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -5922,7 +5894,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F2" s="48" t="s">
         <v>4</v>
@@ -5931,10 +5903,10 @@
         <v>5</v>
       </c>
       <c r="H2" s="45" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I2" s="81" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J2" s="81" t="s">
         <v>8</v>
@@ -5954,16 +5926,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="F3" s="53" t="s">
         <v>110</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" s="53" t="s">
-        <v>112</v>
       </c>
       <c r="G3" s="39" t="s">
         <v>35</v>
@@ -5972,10 +5944,10 @@
         <v>40</v>
       </c>
       <c r="I3" s="50" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K3" s="82" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L3" s="44"/>
       <c r="M3" s="44"/>
@@ -5988,16 +5960,16 @@
         <v>11</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G4" s="39" t="s">
         <v>35</v>
@@ -6009,7 +5981,7 @@
         <v>40</v>
       </c>
       <c r="K4" s="83" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L4" s="84"/>
       <c r="M4" s="84"/>
@@ -6023,19 +5995,19 @@
         <v>11</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G5" s="50" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H5" s="50" t="s">
         <v>40</v>
@@ -6044,7 +6016,7 @@
         <v>40</v>
       </c>
       <c r="K5" s="85" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="66" spans="1:11">
@@ -6055,19 +6027,19 @@
         <v>11</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H6" s="50" t="s">
         <v>40</v>
@@ -6076,7 +6048,7 @@
         <v>40</v>
       </c>
       <c r="K6" s="85" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="66" spans="1:14">
@@ -6084,19 +6056,19 @@
         <v>10</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G7" s="59" t="s">
         <v>35</v>
@@ -6105,10 +6077,10 @@
         <v>40</v>
       </c>
       <c r="I7" s="45" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K7" s="86" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L7" s="87"/>
       <c r="M7" s="87"/>
@@ -6119,19 +6091,19 @@
         <v>10</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G8" s="43" t="s">
         <v>35</v>
@@ -6140,10 +6112,10 @@
         <v>40</v>
       </c>
       <c r="I8" s="88" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K8" s="89" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" s="38" customFormat="1" ht="18" spans="1:13">
@@ -6166,19 +6138,19 @@
         <v>11</v>
       </c>
       <c r="C10" s="51" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F10" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H10" s="50" t="s">
         <v>40</v>
@@ -6187,7 +6159,7 @@
         <v>40</v>
       </c>
       <c r="K10" s="82" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="40.5" spans="1:11">
@@ -6198,19 +6170,19 @@
         <v>11</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E11" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F11" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H11" s="50" t="s">
         <v>40</v>
@@ -6219,7 +6191,7 @@
         <v>40</v>
       </c>
       <c r="K11" s="82" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="27" spans="1:11">
@@ -6230,19 +6202,19 @@
         <v>11</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F12" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H12" s="50" t="s">
         <v>40</v>
@@ -6251,7 +6223,7 @@
         <v>40</v>
       </c>
       <c r="K12" s="82" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:11">
@@ -6262,28 +6234,28 @@
         <v>11</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F13" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H13" s="50" t="s">
         <v>40</v>
       </c>
       <c r="I13" s="91" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K13" s="82" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="27" spans="1:11">
@@ -6294,28 +6266,28 @@
         <v>11</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" s="39" t="s">
         <v>142</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="G14" s="39" t="s">
-        <v>144</v>
       </c>
       <c r="H14" s="50" t="s">
         <v>40</v>
       </c>
       <c r="I14" s="50" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K14" s="82" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:11">
@@ -6326,28 +6298,28 @@
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E15" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F15" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H15" s="50" t="s">
         <v>40</v>
       </c>
       <c r="I15" s="50" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K15" s="82" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="27" spans="1:11">
@@ -6358,28 +6330,28 @@
         <v>11</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F16" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H16" s="50" t="s">
         <v>40</v>
       </c>
       <c r="I16" s="50" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K16" s="82" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" s="10" customFormat="1" spans="1:11">
@@ -6390,28 +6362,28 @@
         <v>11</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E17" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F17" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H17" s="50" t="s">
         <v>40</v>
       </c>
       <c r="I17" s="50" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K17" s="92" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="49.5" spans="1:11">
@@ -6422,19 +6394,19 @@
         <v>11</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E18" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F18" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H18" s="50" t="s">
         <v>40</v>
@@ -6443,7 +6415,7 @@
         <v>40</v>
       </c>
       <c r="K18" s="82" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:11">
@@ -6454,19 +6426,19 @@
         <v>11</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E19" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F19" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H19" s="50" t="s">
         <v>40</v>
@@ -6475,7 +6447,7 @@
         <v>40</v>
       </c>
       <c r="K19" s="82" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" s="39" customFormat="1" ht="17.25" spans="1:14">
@@ -6483,19 +6455,19 @@
         <v>10</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C20" s="67" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E20" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F20" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G20" s="39" t="s">
         <v>35</v>
@@ -6504,10 +6476,10 @@
         <v>40</v>
       </c>
       <c r="I20" s="44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K20" s="93" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L20" s="94"/>
       <c r="M20" s="94"/>
@@ -6518,19 +6490,19 @@
         <v>10</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C21" s="67" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E21" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F21" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G21" s="39" t="s">
         <v>35</v>
@@ -6542,7 +6514,7 @@
         <v>40</v>
       </c>
       <c r="K21" s="83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L21" s="94"/>
       <c r="M21" s="94"/>
@@ -6568,28 +6540,28 @@
         <v>11</v>
       </c>
       <c r="C23" s="68" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E23" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F23" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H23" s="50" t="s">
         <v>40</v>
       </c>
       <c r="I23" s="65" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K23" s="82" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" ht="108" spans="1:11">
@@ -6600,28 +6572,28 @@
         <v>11</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E24" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F24" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G24" s="69" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H24" s="50" t="s">
         <v>40</v>
       </c>
       <c r="I24" s="65" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K24" s="82" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" ht="27" spans="1:15">
@@ -6632,19 +6604,19 @@
         <v>11</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F25" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H25" s="39" t="s">
         <v>40</v>
@@ -6653,7 +6625,7 @@
         <v>40</v>
       </c>
       <c r="K25" s="95" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L25" s="95"/>
       <c r="M25" s="95"/>
@@ -6668,28 +6640,28 @@
         <v>11</v>
       </c>
       <c r="C26" s="70" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E26" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F26" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G26" s="71" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H26" s="50" t="s">
         <v>40</v>
       </c>
       <c r="I26" s="96" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K26" s="97" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" spans="1:14">
@@ -6697,19 +6669,19 @@
         <v>10</v>
       </c>
       <c r="B27" s="50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F27" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G27" s="50" t="s">
         <v>35</v>
@@ -6718,10 +6690,10 @@
         <v>40</v>
       </c>
       <c r="I27" s="48" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K27" s="98" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L27" s="98"/>
       <c r="M27" s="98"/>
@@ -6732,19 +6704,19 @@
         <v>10</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E28" s="43" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F28" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G28" s="50" t="s">
         <v>35</v>
@@ -6753,10 +6725,10 @@
         <v>40</v>
       </c>
       <c r="I28" s="48" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K28" s="98" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L28" s="98"/>
       <c r="M28" s="98"/>
@@ -6770,16 +6742,16 @@
         <v>11</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E29" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F29" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G29" s="39" t="s">
         <v>35</v>
@@ -6788,10 +6760,10 @@
         <v>40</v>
       </c>
       <c r="I29" s="96" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K29" s="99" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:11">
@@ -6802,16 +6774,16 @@
         <v>11</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E30" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F30" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G30" s="39" t="s">
         <v>35</v>
@@ -6820,10 +6792,10 @@
         <v>40</v>
       </c>
       <c r="I30" s="96" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K30" s="82" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" ht="34.5" spans="1:11">
@@ -6834,16 +6806,16 @@
         <v>11</v>
       </c>
       <c r="C31" s="70" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E31" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F31" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G31" s="39" t="s">
         <v>35</v>
@@ -6852,10 +6824,10 @@
         <v>40</v>
       </c>
       <c r="I31" s="96" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K31" s="82" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" s="39" customFormat="1" ht="34.5" spans="1:11">
@@ -6866,16 +6838,16 @@
         <v>11</v>
       </c>
       <c r="C32" s="70" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E32" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F32" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G32" s="39" t="s">
         <v>35</v>
@@ -6884,10 +6856,10 @@
         <v>40</v>
       </c>
       <c r="I32" s="96" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K32" s="82" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" s="40" customFormat="1" ht="40.5" spans="1:16384">
@@ -6898,16 +6870,16 @@
         <v>11</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E33" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F33" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G33" s="39" t="s">
         <v>35</v>
@@ -6916,11 +6888,11 @@
         <v>40</v>
       </c>
       <c r="I33" s="44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J33" s="39"/>
       <c r="K33" s="93" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L33" s="94"/>
       <c r="M33" s="94"/>
@@ -23304,16 +23276,16 @@
         <v>11</v>
       </c>
       <c r="C34" s="70" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E34" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F34" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G34" s="39" t="s">
         <v>35</v>
@@ -23322,7 +23294,7 @@
         <v>40</v>
       </c>
       <c r="I34" s="44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K34" s="2"/>
     </row>
@@ -23334,28 +23306,28 @@
         <v>11</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E35" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F35" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G35" s="39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H35" s="50" t="s">
         <v>40</v>
       </c>
       <c r="I35" s="44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K35" s="82" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" spans="1:11">
@@ -23366,19 +23338,19 @@
         <v>11</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E36" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F36" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G36" s="39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H36" s="50" t="s">
         <v>40</v>
@@ -23387,7 +23359,7 @@
         <v>40</v>
       </c>
       <c r="K36" s="82" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" ht="40.5" spans="1:11">
@@ -23398,28 +23370,28 @@
         <v>11</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E37" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F37" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G37" s="71" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H37" s="50" t="s">
         <v>40</v>
       </c>
       <c r="I37" s="44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K37" s="82" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" spans="1:11">
@@ -23430,19 +23402,19 @@
         <v>11</v>
       </c>
       <c r="C38" s="72" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E38" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F38" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G38" s="39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H38" s="50" t="s">
         <v>40</v>
@@ -23451,7 +23423,7 @@
         <v>40</v>
       </c>
       <c r="K38" s="82" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:11">
@@ -23462,28 +23434,28 @@
         <v>11</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E39" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F39" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G39" s="71" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H39" s="50" t="s">
         <v>40</v>
       </c>
       <c r="I39" s="44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K39" s="82" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" ht="29" customHeight="1" spans="1:14">
@@ -23494,28 +23466,28 @@
         <v>11</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E40" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="D40" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="E40" s="50" t="s">
-        <v>215</v>
-      </c>
       <c r="F40" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G40" s="39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H40" s="50" t="s">
         <v>40</v>
       </c>
       <c r="I40" s="100" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K40" s="95" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L40" s="95"/>
       <c r="M40" s="95"/>
@@ -23529,28 +23501,28 @@
         <v>11</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F41" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G41" s="71" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H41" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I41" s="100" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K41" s="82" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" ht="81" spans="1:11">
@@ -23561,19 +23533,19 @@
         <v>11</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E42" s="43" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F42" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G42" s="71" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H42" s="39" t="s">
         <v>40</v>
@@ -23582,7 +23554,7 @@
         <v>40</v>
       </c>
       <c r="K42" s="82" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" ht="81" spans="1:11">
@@ -23593,28 +23565,28 @@
         <v>11</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E43" s="43" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F43" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G43" s="39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H43" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I43" s="100" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K43" s="82" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" s="2" customFormat="1" ht="40.5" spans="1:15">
@@ -23625,19 +23597,19 @@
         <v>11</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E44" s="43" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F44" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G44" s="39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H44" s="39" t="s">
         <v>40</v>
@@ -23646,7 +23618,7 @@
         <v>40</v>
       </c>
       <c r="K44" s="101" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L44" s="95"/>
       <c r="M44" s="95"/>
@@ -23661,28 +23633,28 @@
         <v>11</v>
       </c>
       <c r="C45" s="51" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D45" s="52" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F45" s="73" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G45" s="74" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H45" s="75" t="s">
         <v>40</v>
       </c>
       <c r="I45" s="48" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K45" s="93" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L45" s="94"/>
       <c r="M45" s="94"/>
@@ -23696,19 +23668,19 @@
         <v>11</v>
       </c>
       <c r="C46" s="36" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E46" s="43" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F46" s="50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G46" s="71" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H46" s="71" t="s">
         <v>40</v>
@@ -23718,7 +23690,7 @@
       </c>
       <c r="J46" s="102"/>
       <c r="K46" s="97" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" s="10" customFormat="1" ht="40.5" spans="1:11">
@@ -23729,19 +23701,19 @@
         <v>11</v>
       </c>
       <c r="C47" s="76" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E47" s="43" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F47" s="50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G47" s="71" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H47" s="53" t="s">
         <v>40</v>
@@ -23751,7 +23723,7 @@
       </c>
       <c r="J47" s="102"/>
       <c r="K47" s="97" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" s="10" customFormat="1" ht="256.5" spans="1:11">
@@ -23762,19 +23734,19 @@
         <v>11</v>
       </c>
       <c r="C48" s="36" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D48" s="77" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E48" s="43" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F48" s="50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G48" s="71" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H48" s="53" t="s">
         <v>40</v>
@@ -23784,7 +23756,7 @@
       </c>
       <c r="J48" s="102"/>
       <c r="K48" s="97" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" s="10" customFormat="1" ht="40.5" spans="1:11">
@@ -23795,19 +23767,19 @@
         <v>11</v>
       </c>
       <c r="C49" s="36" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E49" s="43" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F49" s="50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G49" s="71" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H49" s="53" t="s">
         <v>40</v>
@@ -23817,7 +23789,7 @@
       </c>
       <c r="J49" s="102"/>
       <c r="K49" s="97" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" s="2" customFormat="1" ht="270" spans="1:11">
@@ -23828,16 +23800,16 @@
         <v>11</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E50" s="78" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F50" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G50" s="39" t="s">
         <v>35</v>
@@ -23846,11 +23818,11 @@
         <v>40</v>
       </c>
       <c r="I50" s="48" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J50" s="48"/>
       <c r="K50" s="82" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="51" s="38" customFormat="1" ht="18" spans="1:12">
@@ -23873,29 +23845,29 @@
         <v>11</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E52" s="78" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F52" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G52" s="39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H52" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I52" s="44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J52" s="44"/>
       <c r="K52" s="103" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L52" s="103"/>
       <c r="M52" s="103"/>
@@ -23909,29 +23881,29 @@
         <v>11</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E53" s="78" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F53" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G53" s="39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H53" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I53" s="65" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J53" s="44"/>
       <c r="K53" s="99" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="54" s="2" customFormat="1" ht="34" customHeight="1" spans="1:11">
@@ -23942,29 +23914,29 @@
         <v>11</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E54" s="78" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F54" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G54" s="39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H54" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I54" s="65" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J54" s="44"/>
       <c r="K54" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="55" s="2" customFormat="1" ht="28.5" spans="1:14">
@@ -23975,29 +23947,29 @@
         <v>11</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E55" s="78" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F55" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G55" s="39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H55" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I55" s="65" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J55" s="44"/>
       <c r="K55" s="103" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L55" s="103"/>
       <c r="M55" s="103"/>
@@ -24011,19 +23983,19 @@
         <v>11</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E56" s="78" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F56" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G56" s="39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H56" s="39" t="s">
         <v>40</v>
@@ -24033,7 +24005,7 @@
       </c>
       <c r="J56" s="44"/>
       <c r="K56" s="82" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="57" s="2" customFormat="1" ht="81" spans="1:14">
@@ -24044,31 +24016,31 @@
         <v>11</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="E57" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="F57" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="G57" s="39" t="s">
         <v>261</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="E57" s="78" t="s">
-        <v>111</v>
-      </c>
-      <c r="F57" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="G57" s="39" t="s">
-        <v>263</v>
       </c>
       <c r="H57" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I57" s="65" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J57" s="44" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K57" s="104" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L57" s="104"/>
       <c r="M57" s="104"/>
@@ -24082,19 +24054,19 @@
         <v>11</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E58" s="78" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F58" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G58" s="39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H58" s="39" t="s">
         <v>40</v>
@@ -24104,7 +24076,7 @@
       </c>
       <c r="J58" s="44"/>
       <c r="K58" s="82" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="59" s="2" customFormat="1" ht="40.5" spans="1:11">
@@ -24115,19 +24087,19 @@
         <v>11</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E59" s="78" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F59" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G59" s="39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H59" s="79" t="s">
         <v>40</v>
@@ -24136,10 +24108,10 @@
         <v>40</v>
       </c>
       <c r="J59" s="105" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K59" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="60" s="2" customFormat="1" ht="94.5" spans="1:11">
@@ -24150,31 +24122,31 @@
         <v>11</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E60" s="78" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F60" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G60" s="39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H60" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I60" s="65" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J60" s="100" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K60" s="82" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="61" s="2" customFormat="1" ht="135" spans="1:11">
@@ -24185,31 +24157,31 @@
         <v>11</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E61" s="78" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F61" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G61" s="39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H61" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I61" s="65" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J61" s="106" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K61" s="82" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="62" s="2" customFormat="1" spans="1:11">
@@ -24220,19 +24192,19 @@
         <v>11</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E62" s="78" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F62" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G62" s="39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H62" s="39" t="s">
         <v>40</v>
@@ -24242,7 +24214,7 @@
       </c>
       <c r="J62" s="44"/>
       <c r="K62" s="82" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="63" s="2" customFormat="1" ht="27" spans="1:11">
@@ -24253,31 +24225,31 @@
         <v>11</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="E63" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="F63" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="G63" s="80" t="s">
         <v>284</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="E63" s="73" t="s">
-        <v>111</v>
-      </c>
-      <c r="F63" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="G63" s="80" t="s">
-        <v>286</v>
       </c>
       <c r="H63" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I63" s="44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J63" s="107" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K63" s="82" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="64" s="38" customFormat="1" ht="18" spans="1:12">
@@ -24300,16 +24272,16 @@
         <v>11</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E65" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F65" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G65" s="39" t="s">
         <v>35</v>
@@ -24318,11 +24290,11 @@
         <v>40</v>
       </c>
       <c r="I65" s="44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J65" s="44"/>
       <c r="K65" s="93" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L65" s="83"/>
       <c r="M65" s="83"/>
@@ -24348,19 +24320,19 @@
         <v>11</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E67" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F67" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G67" s="39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H67" s="39" t="s">
         <v>40</v>
@@ -24370,7 +24342,7 @@
       </c>
       <c r="J67" s="44"/>
       <c r="K67" s="82" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="68" s="2" customFormat="1" ht="81" spans="1:11">
@@ -24381,19 +24353,19 @@
         <v>11</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E68" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F68" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G68" s="39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H68" s="39" t="s">
         <v>40</v>
@@ -24403,7 +24375,7 @@
       </c>
       <c r="J68" s="44"/>
       <c r="K68" s="82" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="69" s="2" customFormat="1" ht="67.5" spans="1:11">
@@ -24414,31 +24386,31 @@
         <v>11</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E69" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F69" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G69" s="39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H69" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I69" s="44" t="s">
+        <v>298</v>
+      </c>
+      <c r="J69" s="100" t="s">
+        <v>299</v>
+      </c>
+      <c r="K69" s="82" t="s">
         <v>300</v>
-      </c>
-      <c r="J69" s="100" t="s">
-        <v>301</v>
-      </c>
-      <c r="K69" s="82" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="70" s="2" customFormat="1" spans="1:11">
@@ -24449,29 +24421,29 @@
         <v>11</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E70" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F70" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G70" s="39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H70" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I70" s="100" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J70" s="44"/>
       <c r="K70" s="82" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="71" s="2" customFormat="1" ht="22.5" spans="1:15">
@@ -24482,29 +24454,29 @@
         <v>11</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E71" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F71" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G71" s="39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H71" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I71" s="100" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J71" s="44"/>
       <c r="K71" s="95" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L71" s="95"/>
       <c r="M71" s="95"/>
@@ -24516,32 +24488,32 @@
         <v>32</v>
       </c>
       <c r="B72" s="50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E72" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F72" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G72" s="39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H72" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I72" s="44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J72" s="44"/>
       <c r="K72" s="82" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="73" s="2" customFormat="1" spans="1:11">
@@ -24549,22 +24521,22 @@
         <v>32</v>
       </c>
       <c r="B73" s="50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E73" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F73" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G73" s="39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H73" s="39" t="s">
         <v>40</v>
@@ -24574,7 +24546,7 @@
       </c>
       <c r="J73" s="44"/>
       <c r="K73" s="82" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="74" s="2" customFormat="1" spans="1:11">
@@ -24582,19 +24554,19 @@
         <v>32</v>
       </c>
       <c r="B74" s="50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E74" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F74" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G74" s="39" t="s">
         <v>35</v>
@@ -24603,11 +24575,11 @@
         <v>40</v>
       </c>
       <c r="I74" s="44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J74" s="44"/>
       <c r="K74" s="82" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="75" s="2" customFormat="1" spans="1:11">
@@ -24615,19 +24587,19 @@
         <v>32</v>
       </c>
       <c r="B75" s="50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E75" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F75" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G75" s="39" t="s">
         <v>35</v>
@@ -24636,11 +24608,11 @@
         <v>40</v>
       </c>
       <c r="I75" s="44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J75" s="44"/>
       <c r="K75" s="82" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="76" s="10" customFormat="1" ht="108" spans="1:15">
@@ -24648,34 +24620,34 @@
         <v>32</v>
       </c>
       <c r="B76" s="50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D76" s="108" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E76" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F76" s="50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G76" s="71" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H76" s="71" t="s">
         <v>40</v>
       </c>
       <c r="I76" s="96" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J76" s="115" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K76" s="116" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="L76" s="116"/>
       <c r="M76" s="116"/>
@@ -24687,32 +24659,32 @@
         <v>32</v>
       </c>
       <c r="B77" s="50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E77" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F77" s="50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G77" s="71" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H77" s="71" t="s">
         <v>40</v>
       </c>
       <c r="I77" s="96" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J77" s="115"/>
       <c r="K77" s="97" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="78" s="2" customFormat="1" spans="1:11">
@@ -24720,34 +24692,34 @@
         <v>32</v>
       </c>
       <c r="B78" s="59" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E78" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F78" s="50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G78" s="59" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H78" s="71" t="s">
         <v>40</v>
       </c>
       <c r="I78" s="96" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J78" s="117" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K78" s="82" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="79" s="2" customFormat="1" spans="1:14">
@@ -24755,28 +24727,28 @@
         <v>32</v>
       </c>
       <c r="B79" s="59" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E79" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F79" s="50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G79" s="59" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H79" s="71" t="s">
         <v>40</v>
       </c>
       <c r="I79" s="96" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J79" s="117"/>
       <c r="K79" s="118"/>
@@ -24792,16 +24764,16 @@
         <v>11</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E80" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F80" s="50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G80" s="71" t="s">
         <v>35</v>
@@ -24812,7 +24784,7 @@
       <c r="I80" s="71"/>
       <c r="J80" s="96"/>
       <c r="K80" s="92" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="81" s="2" customFormat="1" ht="162" spans="1:11">
@@ -24823,16 +24795,16 @@
         <v>11</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E81" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F81" s="50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G81" s="39" t="s">
         <v>35</v>
@@ -24843,7 +24815,7 @@
       <c r="I81" s="71"/>
       <c r="J81" s="44"/>
       <c r="K81" s="82" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="82" s="2" customFormat="1" ht="18" spans="1:14">
@@ -24872,19 +24844,19 @@
         <v>11</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E83" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F83" s="50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G83" s="71" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H83" s="105" t="s">
         <v>40</v>
@@ -24893,10 +24865,10 @@
         <v>40</v>
       </c>
       <c r="J83" s="119" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K83" s="99" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="84" s="2" customFormat="1" ht="67.5" spans="1:11">
@@ -24907,19 +24879,19 @@
         <v>11</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E84" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F84" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G84" s="39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H84" s="39" t="s">
         <v>40</v>
@@ -24929,7 +24901,7 @@
       </c>
       <c r="J84" s="44"/>
       <c r="K84" s="82" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="85" s="2" customFormat="1" spans="1:11">
@@ -24940,31 +24912,31 @@
         <v>11</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E85" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F85" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G85" s="39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H85" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I85" s="44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J85" s="120" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K85" s="82" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="86" s="2" customFormat="1" spans="1:11">
@@ -24975,19 +24947,19 @@
         <v>11</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E86" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F86" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G86" s="39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H86" s="39" t="s">
         <v>40</v>
@@ -24997,7 +24969,7 @@
       </c>
       <c r="J86" s="44"/>
       <c r="K86" s="82" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="87" s="2" customFormat="1" ht="27" spans="1:11">
@@ -25008,16 +24980,16 @@
         <v>11</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E87" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F87" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G87" s="39" t="s">
         <v>35</v>
@@ -25029,10 +25001,10 @@
         <v>40</v>
       </c>
       <c r="J87" s="105" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K87" s="82" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="88" s="2" customFormat="1" ht="67.5" spans="1:11">
@@ -25043,16 +25015,16 @@
         <v>11</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E88" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F88" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G88" s="39" t="s">
         <v>35</v>
@@ -25065,7 +25037,7 @@
       </c>
       <c r="J88" s="44"/>
       <c r="K88" s="82" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="89" s="2" customFormat="1" ht="54" spans="1:15">
@@ -25076,31 +25048,31 @@
         <v>11</v>
       </c>
       <c r="C89" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="E89" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="F89" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="G89" s="39" t="s">
         <v>357</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="E89" s="73" t="s">
-        <v>111</v>
-      </c>
-      <c r="F89" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="G89" s="39" t="s">
-        <v>359</v>
       </c>
       <c r="H89" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I89" s="44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J89" s="105" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K89" s="95" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L89" s="121"/>
       <c r="M89" s="121"/>
@@ -25115,28 +25087,28 @@
         <v>11</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E90" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F90" s="50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G90" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H90" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I90" s="44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J90" s="105" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="K90" s="73"/>
       <c r="L90" s="73"/>
@@ -25151,31 +25123,31 @@
         <v>11</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E91" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F91" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G91" s="39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H91" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I91" s="44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J91" s="122" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K91" s="82" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="92" s="2" customFormat="1" ht="121.5" spans="1:15">
@@ -25186,31 +25158,31 @@
         <v>11</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E92" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F92" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G92" s="39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H92" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I92" s="44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J92" s="122" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K92" s="123" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="L92" s="123"/>
       <c r="M92" s="123"/>
@@ -25225,29 +25197,29 @@
         <v>11</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E93" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F93" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G93" s="39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H93" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I93" s="44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J93" s="44"/>
       <c r="K93" s="82" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="94" s="2" customFormat="1" spans="1:15">
@@ -25258,29 +25230,29 @@
         <v>11</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E94" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F94" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G94" s="39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H94" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I94" s="44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J94" s="44"/>
       <c r="K94" s="95" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="L94" s="95"/>
       <c r="M94" s="95"/>
@@ -25295,31 +25267,31 @@
         <v>11</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E95" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F95" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G95" s="39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H95" s="39" t="s">
         <v>40</v>
       </c>
       <c r="I95" s="44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J95" s="105" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K95" s="82" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="96" s="2" customFormat="1" ht="18" spans="1:14">
@@ -25348,19 +25320,19 @@
         <v>11</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D97" s="77" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E97" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F97" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G97" s="39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H97" s="39" t="s">
         <v>40</v>
@@ -25369,10 +25341,10 @@
         <v>40</v>
       </c>
       <c r="J97" s="120" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K97" s="82" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="98" s="2" customFormat="1" ht="51.75" spans="1:11">
@@ -25383,19 +25355,19 @@
         <v>11</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D98" s="34" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E98" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F98" s="50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G98" s="39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H98" s="39" t="s">
         <v>40</v>
@@ -25405,7 +25377,7 @@
       </c>
       <c r="J98" s="44"/>
       <c r="K98" s="82" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="99" s="2" customFormat="1" spans="1:10">
@@ -25416,19 +25388,19 @@
         <v>11</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E99" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F99" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G99" s="39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H99" s="39" t="s">
         <v>40</v>
@@ -25437,7 +25409,7 @@
         <v>40</v>
       </c>
       <c r="J99" s="44" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="100" s="2" customFormat="1" spans="1:11">
@@ -25448,16 +25420,16 @@
         <v>11</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E100" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F100" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G100" s="39" t="s">
         <v>35</v>
@@ -25466,11 +25438,11 @@
         <v>40</v>
       </c>
       <c r="I100" s="44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J100" s="44"/>
       <c r="K100" s="82" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="101" s="2" customFormat="1" ht="135" spans="1:11">
@@ -25481,16 +25453,16 @@
         <v>11</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E101" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F101" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G101" s="39" t="s">
         <v>35</v>
@@ -25503,7 +25475,7 @@
       </c>
       <c r="J101" s="44"/>
       <c r="K101" s="82" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="102" s="2" customFormat="1" ht="27" spans="1:11">
@@ -25514,16 +25486,16 @@
         <v>11</v>
       </c>
       <c r="C102" s="35" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E102" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F102" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G102" s="39" t="s">
         <v>35</v>
@@ -25532,11 +25504,11 @@
         <v>40</v>
       </c>
       <c r="I102" s="44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J102" s="44"/>
       <c r="K102" s="82" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="103" s="2" customFormat="1" ht="54" spans="1:11">
@@ -25547,31 +25519,31 @@
         <v>11</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E103" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F103" s="50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G103" s="71" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H103" s="71" t="s">
         <v>40</v>
       </c>
       <c r="I103" s="96" t="s">
+        <v>401</v>
+      </c>
+      <c r="J103" s="119" t="s">
+        <v>402</v>
+      </c>
+      <c r="K103" s="82" t="s">
         <v>403</v>
-      </c>
-      <c r="J103" s="119" t="s">
-        <v>404</v>
-      </c>
-      <c r="K103" s="82" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="104" s="2" customFormat="1" ht="18" spans="1:14">
@@ -25600,16 +25572,16 @@
         <v>11</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D105" s="35" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E105" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F105" s="50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G105" s="71" t="s">
         <v>35</v>
@@ -25618,11 +25590,11 @@
         <v>40</v>
       </c>
       <c r="I105" s="96" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J105" s="119"/>
       <c r="K105" s="82" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="N105" s="44"/>
     </row>
@@ -25634,16 +25606,16 @@
         <v>11</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D106" s="35" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E106" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F106" s="50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G106" s="71" t="s">
         <v>35</v>
@@ -25652,11 +25624,11 @@
         <v>40</v>
       </c>
       <c r="I106" s="96" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J106" s="119"/>
       <c r="K106" s="82" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="N106" s="44"/>
     </row>
@@ -25668,29 +25640,29 @@
         <v>11</v>
       </c>
       <c r="C107" s="36" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D107" s="37" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E107" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F107" s="50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G107" s="71" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H107" s="71" t="s">
         <v>40</v>
       </c>
       <c r="I107" s="96" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J107" s="44"/>
       <c r="K107" s="82" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N107" s="44"/>
     </row>
@@ -25702,29 +25674,29 @@
         <v>11</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E108" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F108" s="50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G108" s="71" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H108" s="71" t="s">
         <v>40</v>
       </c>
       <c r="I108" s="96" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J108" s="44"/>
       <c r="K108" s="82" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N108" s="44"/>
     </row>
@@ -25754,16 +25726,16 @@
         <v>11</v>
       </c>
       <c r="C110" s="109" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D110" s="110" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E110" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F110" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G110" s="39" t="s">
         <v>35</v>
@@ -25774,7 +25746,7 @@
       <c r="I110" s="44"/>
       <c r="J110" s="44"/>
       <c r="K110" s="95" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="L110" s="94"/>
       <c r="M110" s="94"/>
@@ -25788,19 +25760,19 @@
         <v>11</v>
       </c>
       <c r="C111" s="70" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D111" s="70" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E111" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F111" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G111" s="53" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H111" s="39" t="s">
         <v>40</v>
@@ -25808,7 +25780,7 @@
       <c r="I111" s="44"/>
       <c r="J111" s="44"/>
       <c r="K111" s="95" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L111" s="95"/>
       <c r="M111" s="95"/>
@@ -25819,22 +25791,22 @@
         <v>32</v>
       </c>
       <c r="B112" s="50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E112" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F112" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G112" s="71" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H112" s="39" t="s">
         <v>40</v>
@@ -25842,7 +25814,7 @@
       <c r="I112" s="44"/>
       <c r="J112" s="44"/>
       <c r="K112" s="82" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="113" s="2" customFormat="1" spans="1:11">
@@ -25850,22 +25822,22 @@
         <v>32</v>
       </c>
       <c r="B113" s="50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E113" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F113" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G113" s="71" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H113" s="39" t="s">
         <v>40</v>
@@ -25873,7 +25845,7 @@
       <c r="I113" s="44"/>
       <c r="J113" s="44"/>
       <c r="K113" s="82" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="114" s="2" customFormat="1" ht="18" spans="1:14">
@@ -25902,16 +25874,16 @@
         <v>11</v>
       </c>
       <c r="C115" s="70" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E115" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F115" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G115" s="39" t="s">
         <v>35</v>
@@ -25922,7 +25894,7 @@
       <c r="I115" s="44"/>
       <c r="J115" s="44"/>
       <c r="K115" s="82" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="116" s="2" customFormat="1" ht="18" spans="1:14">
@@ -25951,16 +25923,16 @@
         <v>11</v>
       </c>
       <c r="C117" s="70" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E117" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F117" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G117" s="39" t="s">
         <v>35</v>
@@ -25970,10 +25942,10 @@
       </c>
       <c r="I117" s="44"/>
       <c r="J117" s="107" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="K117" s="93" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="L117" s="93"/>
       <c r="M117" s="93"/>
@@ -26005,16 +25977,16 @@
         <v>11</v>
       </c>
       <c r="C119" s="36" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D119" s="112" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E119" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F119" s="50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G119" s="71" t="s">
         <v>35</v>
@@ -26027,7 +25999,7 @@
       </c>
       <c r="J119" s="96"/>
       <c r="K119" s="124" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L119" s="125"/>
       <c r="M119" s="125"/>
@@ -26041,16 +26013,16 @@
         <v>11</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D120" s="112" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E120" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F120" s="50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G120" s="71" t="s">
         <v>35</v>
@@ -26063,7 +26035,7 @@
       </c>
       <c r="J120" s="96"/>
       <c r="K120" s="124" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L120" s="125"/>
       <c r="M120" s="125"/>
@@ -26077,16 +26049,16 @@
         <v>11</v>
       </c>
       <c r="C121" s="35" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D121" s="113" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E121" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F121" s="114" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G121" s="71" t="s">
         <v>35</v>
@@ -26095,11 +26067,11 @@
         <v>40</v>
       </c>
       <c r="I121" s="96" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J121" s="96"/>
       <c r="K121" s="124" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="L121" s="125"/>
       <c r="M121" s="125"/>
@@ -26113,16 +26085,16 @@
         <v>11</v>
       </c>
       <c r="C122" s="35" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D122" s="113" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E122" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F122" s="114" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G122" s="71" t="s">
         <v>35</v>
@@ -26131,11 +26103,11 @@
         <v>40</v>
       </c>
       <c r="I122" s="96" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J122" s="96"/>
       <c r="K122" s="124" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="L122" s="125"/>
       <c r="M122" s="125"/>
@@ -26149,16 +26121,16 @@
         <v>11</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D123" s="76" t="s">
         <v>64</v>
       </c>
       <c r="E123" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F123" s="114" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G123" s="71" t="s">
         <v>35</v>
@@ -26171,7 +26143,7 @@
       </c>
       <c r="J123" s="96"/>
       <c r="K123" s="124" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L123" s="125"/>
       <c r="M123" s="125"/>
@@ -26185,16 +26157,16 @@
         <v>11</v>
       </c>
       <c r="C124" s="70" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E124" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F124" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G124" s="39" t="s">
         <v>35</v>
@@ -26204,10 +26176,10 @@
       </c>
       <c r="I124" s="44"/>
       <c r="J124" s="126" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="K124" s="124" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L124" s="125"/>
       <c r="M124" s="125"/>
@@ -26394,63 +26366,63 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="27" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="18" spans="1:9">
@@ -26468,111 +26440,111 @@
     </row>
     <row r="12" s="2" customFormat="1" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="18" spans="1:9">
@@ -26590,257 +26562,257 @@
     </row>
     <row r="28" s="2" customFormat="1" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" spans="1:2">
       <c r="A34" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" spans="1:2">
       <c r="A35" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" spans="1:2">
       <c r="A36" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" spans="1:2">
       <c r="A37" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" spans="1:2">
       <c r="A38" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:2">
       <c r="A39" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" ht="27" spans="1:2">
       <c r="A40" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" spans="1:2">
       <c r="A41" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" spans="1:2">
       <c r="A42" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="44" s="2" customFormat="1" spans="1:1">
       <c r="A44" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="1" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" spans="1:2">
       <c r="A46" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" spans="1:2">
       <c r="A47" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="48" s="2" customFormat="1" spans="1:2">
       <c r="A48" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="49" s="2" customFormat="1" ht="67.5" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="53" ht="27" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="61" ht="162" spans="1:2">
       <c r="A61" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="64" ht="216" spans="1:2">
       <c r="A64" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" ht="18" spans="1:9">
@@ -26858,18 +26830,18 @@
     </row>
     <row r="66" s="2" customFormat="1" spans="1:2">
       <c r="A66" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="67" ht="40.5" spans="1:2">
       <c r="A67" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" ht="18" spans="1:9">
@@ -26887,58 +26859,58 @@
     </row>
     <row r="69" s="2" customFormat="1" spans="1:2">
       <c r="A69" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="76" spans="2:2">
@@ -26946,58 +26918,58 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="78" ht="27" spans="1:2">
       <c r="A78" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:2">
       <c r="A79" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="80" ht="14.25" spans="1:2">
       <c r="A80" s="15" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="81" ht="14.25" spans="1:2">
       <c r="A81" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="82" ht="27" spans="1:2">
       <c r="A82" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="84" s="3" customFormat="1" ht="18" spans="1:12">
@@ -27014,18 +26986,18 @@
     </row>
     <row r="85" s="2" customFormat="1" spans="1:2">
       <c r="A85" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="86" s="2" customFormat="1" spans="1:2">
       <c r="A86" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="87" s="3" customFormat="1" ht="18" spans="1:12">
@@ -27042,58 +27014,58 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="94" ht="16.5" spans="1:2">
       <c r="A94" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="95" s="2" customFormat="1" ht="16.5" spans="1:2">
@@ -27102,66 +27074,66 @@
     </row>
     <row r="96" s="2" customFormat="1" spans="1:2">
       <c r="A96" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="97" s="2" customFormat="1" spans="1:2">
       <c r="A97" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="98" s="2" customFormat="1" spans="1:2">
       <c r="A98" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="99" s="2" customFormat="1" spans="1:2">
       <c r="A99" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B99" s="24" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="100" s="2" customFormat="1" spans="1:2">
       <c r="A100" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B100" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="101" s="2" customFormat="1" spans="1:2">
       <c r="A101" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="102" s="2" customFormat="1" spans="1:2">
       <c r="A102" s="10" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="103" s="2" customFormat="1" ht="16.5" spans="1:2">
       <c r="A103" s="22" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="104" s="2" customFormat="1" ht="16.5" spans="1:1">
@@ -27169,28 +27141,28 @@
     </row>
     <row r="105" s="2" customFormat="1" spans="1:1">
       <c r="A105" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="106" s="2" customFormat="1" ht="40.5" spans="1:2">
       <c r="A106" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="108" s="2" customFormat="1" spans="1:1">
       <c r="A108" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="109" ht="81" spans="1:2">
       <c r="A109" s="15" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="110" s="3" customFormat="1" ht="18" spans="1:12">
@@ -27207,122 +27179,122 @@
     </row>
     <row r="111" s="2" customFormat="1" spans="1:2">
       <c r="A111" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="112" s="2" customFormat="1" spans="1:2">
       <c r="A112" s="10" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B112" s="26" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="113" s="2" customFormat="1" spans="1:2">
       <c r="A113" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="114" s="2" customFormat="1" spans="1:2">
       <c r="A114" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="115" s="2" customFormat="1" spans="1:2">
       <c r="A115" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="116" s="2" customFormat="1" spans="1:2">
       <c r="A116" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="117" s="2" customFormat="1" spans="1:2">
       <c r="A117" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="118" s="2" customFormat="1" spans="1:2">
       <c r="A118" s="27" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="119" s="2" customFormat="1" spans="1:2">
       <c r="A119" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="120" s="2" customFormat="1" spans="1:2">
       <c r="A120" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="121" s="2" customFormat="1" spans="1:2">
       <c r="A121" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="123" s="2" customFormat="1" spans="1:2">
       <c r="A123" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="124" s="2" customFormat="1" spans="1:2">
       <c r="A124" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="125" s="2" customFormat="1" spans="1:2">
       <c r="A125" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="126" s="2" customFormat="1" spans="1:2">
       <c r="A126" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="127" s="2" customFormat="1" ht="18" spans="1:14">
@@ -27345,50 +27317,50 @@
     </row>
     <row r="128" s="2" customFormat="1" spans="1:2">
       <c r="A128" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="32" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B129" s="32" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="32" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B130" s="32" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="32" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B131" s="32" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="32" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B132" s="32" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="32" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B133" s="32" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="134" s="2" customFormat="1" spans="1:2">
@@ -27397,26 +27369,26 @@
     </row>
     <row r="135" s="2" customFormat="1" spans="1:2">
       <c r="A135" s="32" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B135" s="32" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="32" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B136" s="32" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="32" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B137" s="32" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="138" s="2" customFormat="1" ht="18" spans="1:14">
@@ -27439,18 +27411,18 @@
     </row>
     <row r="139" s="2" customFormat="1" spans="1:2">
       <c r="A139" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="140" s="2" customFormat="1" spans="1:2">
       <c r="A140" s="32" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B140" s="32" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="141" s="2" customFormat="1" spans="1:2">
@@ -27459,15 +27431,15 @@
     </row>
     <row r="142" s="2" customFormat="1" spans="1:1">
       <c r="A142" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="143" s="2" customFormat="1" spans="1:2">
       <c r="A143" s="10" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B143" s="33" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="144" s="2" customFormat="1" spans="2:2">
@@ -27475,15 +27447,15 @@
     </row>
     <row r="145" s="2" customFormat="1" spans="1:1">
       <c r="A145" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="146" s="2" customFormat="1" ht="34.5" spans="1:2">
       <c r="A146" s="15" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B146" s="34" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="147" s="2" customFormat="1" ht="18" spans="1:14">
@@ -27506,50 +27478,50 @@
     </row>
     <row r="148" s="2" customFormat="1" spans="1:2">
       <c r="A148" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B149" s="35" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="151" s="2" customFormat="1" spans="1:2">
       <c r="A151" s="32" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B151" s="32" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="10" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B152" s="35" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="36" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B153" s="37" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="155" s="2" customFormat="1" ht="18" spans="1:14">
@@ -27572,50 +27544,50 @@
     </row>
     <row r="156" s="2" customFormat="1" spans="1:2">
       <c r="A156" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="160" s="2" customFormat="1" spans="1:2">
       <c r="A160" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="163" s="2" customFormat="1" ht="18" spans="1:14">
@@ -27638,18 +27610,18 @@
     </row>
     <row r="164" s="2" customFormat="1" spans="1:2">
       <c r="A164" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="166" s="2" customFormat="1" ht="18" spans="1:14">
@@ -27672,15 +27644,15 @@
     </row>
     <row r="167" s="2" customFormat="1" spans="1:1">
       <c r="A167" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="168" s="2" customFormat="1" spans="1:2">
       <c r="A168" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="169" s="2" customFormat="1" ht="18" spans="1:14">
@@ -27703,26 +27675,26 @@
     </row>
     <row r="170" s="2" customFormat="1" spans="1:2">
       <c r="A170" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="10" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="173" s="2" customFormat="1" spans="1:2">
@@ -27731,31 +27703,31 @@
     </row>
     <row r="174" s="2" customFormat="1" spans="1:2">
       <c r="A174" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="10" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="10" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B177" s="10" t="s">
         <v>64</v>
@@ -27767,16 +27739,16 @@
     </row>
     <row r="179" s="2" customFormat="1" spans="1:2">
       <c r="A179" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B179" s="10"/>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
